--- a/Data/model_outputs_scenario_4/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_4/total_energy_use.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>8014383654.700579</v>
+        <v>2139147823.158982</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8003607292.447163</v>
+        <v>2140169670.86859</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7999579023.161272</v>
+        <v>2143006225.766772</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>7992663792.864888</v>
+        <v>2145082632.953526</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>7986036591.37915</v>
+        <v>2147250130.976365</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7979671960.269614</v>
+        <v>2149502752.228405</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7973546149.906119</v>
+        <v>2151836197.010477</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7967642028.33042</v>
+        <v>2154246076.736089</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>7961935979.775216</v>
+        <v>2156727943.340976</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>7956415130.348902</v>
+        <v>2159279673.328859</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>7951066515.618449</v>
+        <v>2161897905.419241</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>7945877045.519421</v>
+        <v>2164580232.194396</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>7940834711.481128</v>
+        <v>2167325258.146171</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>7935930701.817657</v>
+        <v>2170130885.475006</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>7931161258.293966</v>
+        <v>2172996456.420834</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>7926515249.859269</v>
+        <v>2175919923.288563</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>7921984997.176793</v>
+        <v>2178899825.238841</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>7917565679.636745</v>
+        <v>2181936479.223039</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>7913252898.980725</v>
+        <v>2185029097.037541</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>7909043223.447756</v>
+        <v>2188177615.959925</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>7904932577.185587</v>
+        <v>2191381254.212604</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>7900917691.269535</v>
+        <v>2194640043.447813</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>7896995189.020732</v>
+        <v>2197953359.703855</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>7893162709.482565</v>
+        <v>2201321691.547487</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>7889413259.971477</v>
+        <v>2204743578.236913</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>7885751153.901331</v>
+        <v>2208221349.623917</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>7882168049.623839</v>
+        <v>2211753354.391282</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>7878666819.096047</v>
+        <v>2215341290.482126</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>7875245198.727236</v>
+        <v>2218985171.457137</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>7871898451.348901</v>
+        <v>2222684564.047967</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>7868626420.829309</v>
+        <v>2226440416.760038</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>7865428154.982853</v>
+        <v>2230253008.195704</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>7862301539.997276</v>
+        <v>2234122640.283274</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>7859247552.665895</v>
+        <v>2238050664.409834</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>7856263684.695895</v>
+        <v>2242037246.023265</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>7853352712.577734</v>
+        <v>2246084143.734515</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>7850505566.015121</v>
+        <v>2250189602.445416</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>7847727331.536949</v>
+        <v>2254356201.511071</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>7845012065.26017</v>
+        <v>2258582987.702851</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>7842364539.961454</v>
+        <v>2262872827.979146</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>7839779817.98799</v>
+        <v>2267225023.366434</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>7837260046.795064</v>
+        <v>2271641614.253325</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>7834799403.750504</v>
+        <v>2276121644.582702</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>7832399170.162051</v>
+        <v>2280667047.313608</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>7830056480.819326</v>
+        <v>2285277783.370313</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>7827773500.081149</v>
+        <v>2289955927.032278</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>7825549088.066194</v>
+        <v>2294702488.236923</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>7823377977.230576</v>
+        <v>2299516962.239019</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>7821260860.525874</v>
+        <v>2304401150.112209</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>7819194667.113775</v>
+        <v>2309355054.465537</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>7817181280.438566</v>
+        <v>2314381081.591636</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>7815219396.572294</v>
+        <v>2319480237.381257</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>7813303360.481897</v>
+        <v>2324652189.052814</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>7811431304.735205</v>
+        <v>2329897482.322262</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>7809604662.437518</v>
+        <v>2335218689.794785</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>7807823765.638062</v>
+        <v>2340617252.448229</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>7806081305.757892</v>
+        <v>2346092446.809124</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>7804377301.403233</v>
+        <v>2351645740.200575</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>7802714563.591937</v>
+        <v>2357280106.534969</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>7801084756.821921</v>
+        <v>2362994391.860372</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>7799488116.469064</v>
+        <v>2368790237.764625</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>7797923601.425108</v>
+        <v>2374669453.909499</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>7796391417.077508</v>
+        <v>2380633809.091628</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>7794882827.473818</v>
+        <v>2386682183.258844</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>7793400670.143267</v>
+        <v>2392817442.717723</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>7791944389.720838</v>
+        <v>2399041524.821189</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>7790503809.037932</v>
+        <v>2405352748.545685</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>7789083782.144856</v>
+        <v>2411754975.722863</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>7787682977.004342</v>
+        <v>2418249635.312344</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>7786291018.027376</v>
+        <v>2424835226.815031</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>7784916572.319358</v>
+        <v>2431516855.364607</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>7783546667.549383</v>
+        <v>2438291933.350747</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>7782187384.618693</v>
+        <v>2445165028.537382</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>7780833558.098176</v>
+        <v>2452136243.614618</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>7779480090.059261</v>
+        <v>2459205981.293279</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>7778128265.657008</v>
+        <v>2466376941.494812</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>7776773110.15994</v>
+        <v>2473649471.820322</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>7775416434.40677</v>
+        <v>2481026812.74739</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>7774052103.324426</v>
+        <v>2488508204.51603</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>7772681909.108538</v>
+        <v>2496097064.09779</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>7771300637.438869</v>
+        <v>2503793301.476742</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>7769906924.798086</v>
+        <v>2511599375.86972</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>7768497591.810426</v>
+        <v>2519515456.602367</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>7767074855.39433</v>
+        <v>2527545165.693846</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>7765632278.989654</v>
+        <v>2535688243.738586</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>7764173788.066137</v>
+        <v>2543948415.724522</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>7762689559.506633</v>
+        <v>2552324213.241264</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>7761186882.200603</v>
+        <v>2560820366.346466</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>7759658340.474197</v>
+        <v>2569436219.580472</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>7758107816.156792</v>
+        <v>2578175422.523264</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>7756527956.504912</v>
+        <v>2587037059.409885</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>7754923579.243243</v>
+        <v>2596025283.255594</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>7753291512.853379</v>
+        <v>2605140860.417963</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>7751630297.604505</v>
+        <v>2614384911.100444</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>7749945093.704698</v>
+        <v>2623761742.671799</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>7748225684.658116</v>
+        <v>2633269355.035767</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>7746478878.128866</v>
+        <v>2642911741.938412</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>7744705330.199843</v>
+        <v>2652691338.678057</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>7742904535.567656</v>
+        <v>2662609129.544691</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>7741075200.002024</v>
+        <v>2672666872.084159</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>7739221621.274837</v>
+        <v>2682867561.085286</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>7737339418.653957</v>
+        <v>2693210949.473764</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>7735434935.055189</v>
+        <v>2703700965.127103</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>7733510968.83542</v>
+        <v>2714340135.985356</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>7731562379.987768</v>
+        <v>2725127419.452473</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>7729599442.884828</v>
+        <v>2736068690.234909</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>7727619908.972276</v>
+        <v>2747163776.903384</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>7725627670.644848</v>
+        <v>2758415356.807035</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>7723622101.509826</v>
+        <v>2769824332.483077</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>7721611760.551399</v>
+        <v>2781394926.24462</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>7719600742.630117</v>
+        <v>2793129287.573997</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>7717587091.516954</v>
+        <v>2805027453.141021</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>7715578607.230745</v>
+        <v>2817093177.915387</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>7713583942.84248</v>
+        <v>2829330363.114701</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>7711601055.6946</v>
+        <v>2841738505.216976</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>7709633716.524037</v>
+        <v>2854319420.944006</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>7707693539.989826</v>
+        <v>2867078130.00293</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>7705786060.109557</v>
+        <v>2880017028.723805</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>7703914484.843317</v>
+        <v>2893137214.586604</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>7702083307.932775</v>
+        <v>2906440284.929407</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>7700302318.731136</v>
+        <v>2919930314.606479</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>7698576735.336114</v>
+        <v>2933609317.310183</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>7696920036.663906</v>
+        <v>2947481751.874609</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>7695327322.643025</v>
+        <v>2961545193.459412</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>7693821950.869119</v>
+        <v>2975808765.784482</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>7692399423.595154</v>
+        <v>2990270576.353929</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>7691077332.172742</v>
+        <v>3004936037.627391</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>7689854065.563401</v>
+        <v>3019804339.507375</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>7688750622.096666</v>
+        <v>3034882721.764188</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>7687766678.889527</v>
+        <v>3050170808.036109</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>7686919162.481784</v>
+        <v>3065673582.096919</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>7686208638.507488</v>
+        <v>3081390739.207226</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>7685657582.526014</v>
+        <v>3097330023.65723</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>7685265327.670718</v>
+        <v>3113490313.269359</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>7685050036.12935</v>
+        <v>3129876895.341556</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>7685014862.524507</v>
+        <v>3146490444.521179</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>7685183374.416702</v>
+        <v>3163338632.673133</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>7685550306.510911</v>
+        <v>3180418515.318353</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>7686141419.58329</v>
+        <v>3197738296.479166</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>7686959689.313983</v>
+        <v>3215298817.577816</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>7688023611.397957</v>
+        <v>3233104900.385302</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>7689331809.539841</v>
+        <v>3251155002.896908</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>7690916651.710435</v>
+        <v>3269460619.719211</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>7692773090.892446</v>
+        <v>3288018668.590996</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>7694922305.760253</v>
+        <v>3306835148.888885</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>7697371221.150225</v>
+        <v>3325912566.108235</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>7700142108.834514</v>
+        <v>3345257882.163918</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>7703231738.076233</v>
+        <v>3364868163.201485</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>7706669763.193065</v>
+        <v>3384754142.00019</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>7710455207.951274</v>
+        <v>3404913971.948538</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>7714609437.79728</v>
+        <v>3425354347.122975</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>7719139296.380915</v>
+        <v>3446078012.551781</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>7724063713.625279</v>
+        <v>3467089727.462876</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>7729389072.283406</v>
+        <v>3488392103.980564</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>7735136417.184496</v>
+        <v>3509991785.26037</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>7741305445.634472</v>
+        <v>3531887713.417586</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>7747917427.275682</v>
+        <v>3554087344.578665</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>7754980835.469153</v>
+        <v>3576593357.562255</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>7762517464.542463</v>
+        <v>3599413495.166563</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>7770530489.255716</v>
+        <v>3622548704.787588</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>7779037910.723521</v>
+        <v>3646004608.695323</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>7788045879.238499</v>
+        <v>3669784443.558047</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>7797573193.953176</v>
+        <v>3693894282.068661</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>7807628183.389537</v>
+        <v>3718338316.53479</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>7818222920.842885</v>
+        <v>3743119363.711652</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>7829366376.306435</v>
+        <v>3768242997.329861</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>7841078910.267466</v>
+        <v>3793716094.763052</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>7853356926.229337</v>
+        <v>3819537858.50223</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>7866229653.737168</v>
+        <v>3845720261.252741</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>7879691625.814093</v>
+        <v>3872262011.057324</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>7893768126.323273</v>
+        <v>3899173406.190725</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>7908453369.142447</v>
+        <v>3926452633.069948</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>7923777542.185559</v>
+        <v>3954113633.08545</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>7939729411.750983</v>
+        <v>3982152014.401069</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>7956339917.094389</v>
+        <v>4010582178.583288</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>7973598374.246314</v>
+        <v>4039400533.49576</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>7991536751.466728</v>
+        <v>4068622488.355793</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>8010139573.301866</v>
+        <v>4098242183.004927</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>8029439737.302639</v>
+        <v>4128276109.423006</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>8049425001.397805</v>
+        <v>4158720148.646173</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>8070124700.178</v>
+        <v>4189589396.979265</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>8091526065.91968</v>
+        <v>4220879997.661005</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>8113659984.277019</v>
+        <v>4252608596.335671</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>8136510360.424808</v>
+        <v>4284769598.618806</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>8160108597.40805</v>
+        <v>4317380280.465104</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>8184443114.919928</v>
+        <v>4350438009.597613</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>8209536395.826636</v>
+        <v>4383955370.067511</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>8235380422.080868</v>
+        <v>4417932471.294792</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>8262000989.449117</v>
+        <v>4452383446.90184</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>8289384339.50506</v>
+        <v>4487306752.007385</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>8317556770.670968</v>
+        <v>4522716969.941672</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>8346507306.458587</v>
+        <v>4558613113.214097</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>8376256962.251874</v>
+        <v>4595009067.086094</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>8406798872.604545</v>
+        <v>4631905593.780021</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>8438152894.190125</v>
+        <v>4669316142.81266</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>8470313638.388957</v>
+        <v>4707243232.204408</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>8503290912.648295</v>
+        <v>4745695000.872828</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>8537091319.886567</v>
+        <v>4784680294.932563</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>8571722797.082239</v>
+        <v>4824207020.432088</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>8607182335.795952</v>
+        <v>4864279680.89009</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>8643485933.601555</v>
+        <v>4904910425.515305</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>8680633569.755653</v>
+        <v>4946105363.485628</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>8718628999.472296</v>
+        <v>4987871031.267405</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>8757480383.914474</v>
+        <v>5030217847.187349</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>8797192621.59693</v>
+        <v>5073153490.236794</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>8837769133.047403</v>
+        <v>5116685994.207702</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>8879217601.19878</v>
+        <v>5160825302.426821</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>8921541714.948225</v>
+        <v>5205579525.413706</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>8964748255.210052</v>
+        <v>5250957804.676571</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>9008837131.562757</v>
+        <v>5296967493.115937</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>9053820485.706011</v>
+        <v>5343620616.331939</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>9099700898.31163</v>
+        <v>5390925842.201008</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>9146482369.054892</v>
+        <v>5438892058.614079</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>9194173184.445728</v>
+        <v>5487530353.735115</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>9242777105.797409</v>
+        <v>5536849654.539299</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>9292297736.60331</v>
+        <v>5586859987.328229</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>9342747198.211988</v>
+        <v>5637573701.623627</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>9394126553.763929</v>
+        <v>5688999604.74789</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>9446441793.379042</v>
+        <v>5741148300.531031</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>9499701212.364992</v>
+        <v>5794031852.236032</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>9553913842.372503</v>
+        <v>5847662355.055492</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>9609078093.44445</v>
+        <v>5902047560.65594</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>9665207369.386864</v>
+        <v>5957202150.803892</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>9722308364.814333</v>
+        <v>6013137729.137671</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>9780384787.541773</v>
+        <v>6069864712.114258</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>9839449279.138937</v>
+        <v>6127397994.626786</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>9899505832.413273</v>
+        <v>6185748254.494116</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>9960566014.659716</v>
+        <v>6244930060.184892</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>10022627890.85645</v>
+        <v>6304950659.69581</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>10085718254.69053</v>
+        <v>6365833369.551651</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>10149831536.2522</v>
+        <v>6427584360.373694</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>10214981062.12348</v>
+        <v>6490219036.532533</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>10281175570.67822</v>
+        <v>6553751760.188979</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>10348431542.05473</v>
+        <v>6618200210.280345</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>10416747863.58715</v>
+        <v>6683572451.112101</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>10486143485.20863</v>
+        <v>6749888784.088862</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>10556630451.73644</v>
+        <v>6817164677.950579</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>10628211118.87843</v>
+        <v>6885411163.120297</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>10700908378.74681</v>
+        <v>6954650393.382157</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>10774729285.99446</v>
+        <v>7024895264.294799</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>10849683481.44309</v>
+        <v>7096161657.424824</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>10925785582.6394</v>
+        <v>7168466632.269297</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>11003059105.51416</v>
+        <v>7241834033.193437</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>11081500823.55966</v>
+        <v>7316271516.063814</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>11161139933.72174</v>
+        <v>7391806015.266739</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>11241981561.63197</v>
+        <v>7468450212.945902</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>11324049941.86215</v>
+        <v>7546228122.995893</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>11407351876.43336</v>
+        <v>7625154213.176849</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>11491910410.0442</v>
+        <v>7705251968.983586</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>11577740204.59119</v>
+        <v>7786540301.734158</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>11664853917.47173</v>
+        <v>7869037514.177157</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>11753282038.03584</v>
+        <v>7952771617.135534</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>11843029331.87401</v>
+        <v>8037756426.471581</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>11934123560.29725</v>
+        <v>8124019399.261948</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>12026580820.02122</v>
+        <v>8211580561.644727</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>12120425784.27744</v>
+        <v>8300466206.80072</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>12215668757.19019</v>
+        <v>8390693222.602459</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>12312344951.69703</v>
+        <v>8482294327.741354</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>12410465638.73762</v>
+        <v>8575288046.972179</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>12510059883.84912</v>
+        <v>8669702688.520958</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>12611145305.28405</v>
+        <v>8765561844.218019</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>12713748020.45645</v>
+        <v>8862892535.830854</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>12817896583.73494</v>
+        <v>8961724400.23304</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>12923606665.84256</v>
+        <v>9062079593.599874</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>13030916916.17264</v>
+        <v>9163993849.080465</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>13139840268.68354</v>
+        <v>9267487728.877844</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>13250413910.33061</v>
+        <v>9372596864.651907</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>13362660229.58356</v>
+        <v>9479348595.300964</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>13476613943.28608</v>
+        <v>9587776733.461727</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>13592294009.24557</v>
+        <v>9697906982.918606</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>13709742295.83717</v>
+        <v>9809778944.442406</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>13828977234.35418</v>
+        <v>9923418144.536459</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>13950038168.13794</v>
+        <v>10038862758.16077</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>14072954448.97658</v>
+        <v>10156145475.21699</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>14197756724.31523</v>
+        <v>10275300547.60483</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>14324480290.05848</v>
+        <v>10396364474.53922</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>14453163862.7741</v>
+        <v>10519376783.96411</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>14583836713.3694</v>
+        <v>10644371013.32281</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>14716531793.41436</v>
+        <v>10771384345.86182</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>14851296433.65064</v>
+        <v>10900462157.8933</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>14988153158.89849</v>
+        <v>11031634818.79165</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>15127154070.79494</v>
+        <v>11164951700.27343</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>15268325866.63247</v>
+        <v>11300447395.31211</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>15411712353.51301</v>
+        <v>11438166220.82712</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>15557358104.85923</v>
+        <v>11578154504.23804</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>15705297797.19969</v>
+        <v>11720451551.56901</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>15855574943.61406</v>
+        <v>11865103897.39263</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>16008229417.5207</v>
+        <v>12012155083.45255</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>16163311057.01386</v>
+        <v>12161656207.08433</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>16320854653.27777</v>
+        <v>12313648948.72556</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>16480917052.84637</v>
+        <v>12468189206.61028</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>16643528699.9356</v>
+        <v>12625316172.59946</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>16808747526.33221</v>
+        <v>12785088233.46329</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>16976612484.61749</v>
+        <v>12947550588.31529</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>17147174411.02464</v>
+        <v>13112758098.04309</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>17320483054.12946</v>
+        <v>13280763176.77412</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>17496582273.80066</v>
+        <v>13451616755.06759</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>17675523840.62732</v>
+        <v>13625374929.47569</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>17857360768.90979</v>
+        <v>13802094465.56626</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>18042135951.21668</v>
+        <v>13981826297.79817</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>18229909626.17994</v>
+        <v>14164633844.13758</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>18378730295.34888</v>
+        <v>14316868065.51152</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>18530159844.60091</v>
+        <v>14471762976.59959</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>18684229053.68218</v>
+        <v>14629356423.62662</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>18840984385.29141</v>
+        <v>14789701432.86103</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>19000480744.74881</v>
+        <v>14952854860.02998</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>19162756196.72689</v>
+        <v>15118864149.65591</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>19327863619.1168</v>
+        <v>15287785962.24028</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>19495841050.10744</v>
+        <v>15459667543.51037</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>19666742814.08944</v>
+        <v>15634567661.29946</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>19840612167.34726</v>
+        <v>15812537768.81039</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>20017496652.63847</v>
+        <v>15993633965.94591</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>20197447138.78164</v>
+        <v>16177912406.19309</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>20380503912.81097</v>
+        <v>16365424963.65233</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>20566715482.41449</v>
+        <v>16556227241.97239</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>20756140785.6317</v>
+        <v>16750383280.32377</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>20948811398.4838</v>
+        <v>16947939936.41692</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>21144784659.17383</v>
+        <v>17148960817.36503</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>21344104345.70077</v>
+        <v>17353499841.90049</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>21546813341.16187</v>
+        <v>17561611466.70222</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>21752961862.90087</v>
+        <v>17773357356.60613</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>21962597046.60648</v>
+        <v>17988794039.65254</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>22175762825.64606</v>
+        <v>18207977871.21556</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>22392505901.82171</v>
+        <v>18430967124.36834</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>22612865149.63811</v>
+        <v>18657815125.27998</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>22836888378.87063</v>
+        <v>18888582460.21159</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>23064619434.82355</v>
+        <v>19123324802.98704</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>23296099507.10903</v>
+        <v>19362098302.34279</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>23531370046.10229</v>
+        <v>19604958526.59029</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>23770470840.45792</v>
+        <v>19851960769.97374</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>24013442343.76035</v>
+        <v>20103160256.06564</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>24260319043.80806</v>
+        <v>20358608032.68411</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>24511139863.19234</v>
+        <v>20618359855.12103</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>24765942071.89815</v>
+        <v>20882468914.92345</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>25024756675.81555</v>
+        <v>21150983720.67014</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>25287621562.22943</v>
+        <v>21423959900.68146</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>25554560154.59763</v>
+        <v>21701440064.46295</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>25825604272.08706</v>
+        <v>21983474670.58469</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>26100783203.79193</v>
+        <v>22270111632.15013</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>26380122363.33453</v>
+        <v>22561396653.60631</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>26663640946.90701</v>
+        <v>22857369628.1791</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>26951363797.81121</v>
+        <v>23158076113.15362</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>27243313123.70962</v>
+        <v>23463558484.33343</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>27539497233.22482</v>
+        <v>23773848557.26277</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>27839935372.86885</v>
+        <v>24088987485.42239</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>28144638349.56312</v>
+        <v>24409008161.41386</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>28453617508.26945</v>
+        <v>24733944695.76267</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>28766874587.31472</v>
+        <v>25063823240.25132</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>29084420715.67562</v>
+        <v>25398677551.06616</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>29406246837.09576</v>
+        <v>25738525058.45218</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>29732358077.81852</v>
+        <v>26083393960.61514</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>30062742724.00301</v>
+        <v>26433298864.6455</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>30397401295.04896</v>
+        <v>26788263756.62401</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>30736313846.57929</v>
+        <v>27148296309.24984</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>31079466461.56009</v>
+        <v>27513408560.35504</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>31426841609.32403</v>
+        <v>27883609269.08095</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>31771014591.84059</v>
+        <v>28252237678.00124</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>32119297074.80518</v>
+        <v>28625875779.3116</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>32471648463.31017</v>
+        <v>29004511842.48681</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>32828047227.85975</v>
+        <v>29388149000.37703</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>33188452807.53752</v>
+        <v>29776774629.93819</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>33552825816.25861</v>
+        <v>30170376247.73244</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>33921123960.03548</v>
+        <v>30568938538.17593</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>34293294559.89124</v>
+        <v>30972436988.19038</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>34669293559.40475</v>
+        <v>31380853682.52018</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>35049060313.26941</v>
+        <v>31794156321.82282</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>35432539448.57806</v>
+        <v>32212315888.89773</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>35819665252.84544</v>
+        <v>32635294810.46419</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>36210374193.71329</v>
+        <v>33063055342.58815</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>36604591822.38742</v>
+        <v>33495551448.69551</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>37002249686.32745</v>
+        <v>33932740225.86945</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>37334994775.30826</v>
+        <v>34311276449.39563</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>37670532256.47107</v>
+        <v>34693710891.51314</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>38008781312.69876</v>
+        <v>35079985545.53459</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>38349662124.68604</v>
+        <v>35470042326.07714</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>38693092143.99843</v>
+        <v>35863820140.10318</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>39038985313.19684</v>
+        <v>36261253916.80518</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>39386779141.79747</v>
+        <v>36661835025.06287</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>39731199130.80479</v>
+        <v>37060657150.15664</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>40058950879.78448</v>
+        <v>37445280252.47012</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>40354668837.89588</v>
+        <v>37801221174.68129</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>40780289819.05494</v>
+        <v>38281363055.73478</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>41162276908.94784</v>
+        <v>38722099577.17403</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>41505323649.48273</v>
+        <v>39127595996.00301</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>41818264968.31921</v>
+        <v>39505964630.07344</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>42111467952.75909</v>
+        <v>39866837070.31576</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>42395029666.86467</v>
+        <v>40219670336.78915</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>42677731091.35889</v>
+        <v>40572750673.22153</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>42966617772.17603</v>
+        <v>40932781465.53497</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>43266948508.12206</v>
+        <v>41304816810.4586</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>43582360431.8603</v>
+        <v>41692402273.93326</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>43634554302.82041</v>
+        <v>41827717094.72745</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>43706035465.05103</v>
+        <v>41981831130.44463</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>43796897627.18198</v>
+        <v>42154945303.14653</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>43906627179.86416</v>
+        <v>42346676125.11169</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>44034295388.30393</v>
+        <v>42556235806.90793</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>44178727363.42664</v>
+        <v>42782591116.08569</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>44338592698.18394</v>
+        <v>43024549460.70847</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>44512509588.21354</v>
+        <v>43280858028.25491</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>44699088684.91663</v>
+        <v>43550246105.06527</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>44896985469.23766</v>
+        <v>43831476056.01742</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>44822716259.4554</v>
+        <v>43846682916.69071</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>44757284892.08142</v>
+        <v>43870435216.3786</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>44699463913.35699</v>
+        <v>43901577399.4832</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>44648133799.97263</v>
+        <v>43939050708.56857</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>44602285322.44729</v>
+        <v>43981896436.82764</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>44561006618.58918</v>
+        <v>44029244265.40927</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>44522827478.08839</v>
+        <v>44079664009.32339</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>44479824693.70705</v>
+        <v>44125313046.30697</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>44413420787.44386</v>
+        <v>44147695473.47038</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>44302933366.02926</v>
+        <v>44126068945.64772</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>44217371403.39296</v>
+        <v>44129052836.92637</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>44072392670.28403</v>
+        <v>44072392531.87798</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>43875888712.12528</v>
+        <v>43963066398.10667</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43640384490.95419</v>
+        <v>43813332186.61668</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43380050676.81992</v>
+        <v>43637204936.91028</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43108292416.15238</v>
+        <v>43448042404.3896</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>42836469829.41843</v>
+        <v>43257244575.64023</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>42573426391.09898</v>
+        <v>43073755395.8889</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>42325530010.70335</v>
+        <v>42904079024.22314</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>42096955953.0488</v>
+        <v>42752542122.01902</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>41890096306.76116</v>
+        <v>42621688893.77557</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>41705944882.76599</v>
+        <v>42512655695.48553</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>41544473786.68472</v>
+        <v>42425542108.17752</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>41404925963.98288</v>
+        <v>42359700284.71114</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>41286065408.96629</v>
+        <v>42313984424.3711</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>41186356746.22092</v>
+        <v>42286930749.05841</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>41104107365.35317</v>
+        <v>42276900925.53999</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>40920231061.72476</v>
+        <v>42164847891.48279</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>40751099367.47247</v>
+        <v>42066961333.41042</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>40594791671.95065</v>
+        <v>41981336549.30846</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>40449510548.77367</v>
+        <v>41906180749.18831</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>40313599363.64441</v>
+        <v>41839832635.60477</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>40185541637.35541</v>
+        <v>41780762963.76946</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>40063967344.87675</v>
+        <v>41727582638.95121</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>39947640371.60878</v>
+        <v>41679030979.69514</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>39835459879.42194</v>
+        <v>41633978650.94455</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>39726437409.95277</v>
+        <v>41591404623.44422</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>39619691778.54737</v>
+        <v>41550392337.57221</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>39514440890.33862</v>
+        <v>41510121743.52042</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>39409989908.75256</v>
+        <v>41469858159.58119</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>39305723546.68883</v>
+        <v>41428944730.22595</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>39201093016.84914</v>
+        <v>41386789689.66832</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>39095621262.854</v>
+        <v>41342872375.25301</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>38988880294.52988</v>
+        <v>41296719875.40839</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>38880490815.78143</v>
+        <v>41247907286.16995</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>38770119189.27729</v>
+        <v>41196054595.62032</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>38657476391.43027</v>
+        <v>41140826648.43529</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>38542302759.74892</v>
+        <v>41081916520.82662</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>38424372452.68134</v>
+        <v>41019051354.01721</v>
       </c>
     </row>
     <row r="452">

--- a/Data/model_outputs_scenario_4/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_4/total_energy_use.xlsx
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2140169670.86859</v>
+        <v>2140169670.867881</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2143006225.766772</v>
+        <v>2143006225.766556</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>2145082632.953526</v>
+        <v>2145082632.95331</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>2147250130.976365</v>
+        <v>2147250130.976215</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>2149502752.228405</v>
+        <v>2149502752.228188</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>2151836197.010477</v>
+        <v>2151836197.010261</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>2154246076.736089</v>
+        <v>2154246076.735873</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2156727943.340976</v>
+        <v>2156727943.340762</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2159279673.328859</v>
+        <v>2159279673.328645</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>2161897905.419241</v>
+        <v>2161897905.419025</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>2164580232.194396</v>
+        <v>2164580232.194183</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>2167325258.146171</v>
+        <v>2167325258.145957</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>2170130885.475006</v>
+        <v>2170130885.474792</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>2172996456.420834</v>
+        <v>2172996456.420619</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>2175919923.288563</v>
+        <v>2175919923.288348</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>2178899825.238841</v>
+        <v>2178899825.238628</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>2181936479.223039</v>
+        <v>2181936479.222824</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>2185029097.037541</v>
+        <v>2185029097.037327</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>2188177615.959925</v>
+        <v>2188177615.95971</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>2191381254.212604</v>
+        <v>2191381254.212391</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>2194640043.447813</v>
+        <v>2194640043.447599</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>2197953359.703855</v>
+        <v>2197953359.703642</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>2201321691.547487</v>
+        <v>2201321691.547273</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>2204743578.236913</v>
+        <v>2204743578.236701</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>2208221349.623917</v>
+        <v>2208221349.623704</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>2211753354.391282</v>
+        <v>2211753354.391068</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>2215341290.482126</v>
+        <v>2215341290.481915</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>2218985171.457137</v>
+        <v>2218985171.456925</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>2222684564.047967</v>
+        <v>2222684564.047756</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>2226440416.760038</v>
+        <v>2226440416.759828</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>2230253008.195704</v>
+        <v>2230253008.195492</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>2234122640.283274</v>
+        <v>2234122640.283062</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>2238050664.409834</v>
+        <v>2238050664.409623</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>2242037246.023265</v>
+        <v>2242037246.023054</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>2246084143.734515</v>
+        <v>2246084143.734304</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>2250189602.445416</v>
+        <v>2250189602.445204</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>2254356201.511071</v>
+        <v>2254356201.510859</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>2258582987.702851</v>
+        <v>2258582987.702641</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>2262872827.979146</v>
+        <v>2262872827.978938</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>2267225023.366434</v>
+        <v>2267225023.366224</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>2271641614.253325</v>
+        <v>2271641614.253113</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>2276121644.582702</v>
+        <v>2276121644.582493</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>2280667047.313608</v>
+        <v>2280667047.313401</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>2285277783.370313</v>
+        <v>2285277783.370105</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>2289955927.032278</v>
+        <v>2289955927.03207</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>2294702488.236923</v>
+        <v>2294702488.236715</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>2299516962.239019</v>
+        <v>2299516962.23881</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>2304401150.112209</v>
+        <v>2304401150.112002</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>2309355054.465537</v>
+        <v>2309355054.465329</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>2314381081.591636</v>
+        <v>2314381081.591428</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>2319480237.381257</v>
+        <v>2319480237.381048</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>2324652189.052814</v>
+        <v>2324652189.052608</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>2329897482.322262</v>
+        <v>2329897482.322053</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>2335218689.794785</v>
+        <v>2335218689.794578</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>2340617252.448229</v>
+        <v>2340617252.448021</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>2346092446.809124</v>
+        <v>2346092446.808916</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>2351645740.200575</v>
+        <v>2351645740.200366</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>2357280106.534969</v>
+        <v>2357280106.534761</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>2362994391.860372</v>
+        <v>2362994391.860165</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>2368790237.764625</v>
+        <v>2368790237.764416</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>2374669453.909499</v>
+        <v>2374669453.909289</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>2380633809.091628</v>
+        <v>2380633809.091419</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>2386682183.258844</v>
+        <v>2386682183.258632</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>2392817442.717723</v>
+        <v>2392817442.717513</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>2399041524.821189</v>
+        <v>2399041524.820977</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>2405352748.545685</v>
+        <v>2405352748.545474</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>2411754975.722863</v>
+        <v>2411754975.72265</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>2418249635.312344</v>
+        <v>2418249635.312133</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>2424835226.815031</v>
+        <v>2424835226.814814</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>2431516855.364607</v>
+        <v>2431516855.364392</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>2438291933.350747</v>
+        <v>2438291933.350533</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>2445165028.537382</v>
+        <v>2445165028.537163</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>2452136243.614618</v>
+        <v>2452136243.614402</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>2459205981.293279</v>
+        <v>2459205981.293055</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>2466376941.494812</v>
+        <v>2466376941.494589</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>2473649471.820322</v>
+        <v>2473649471.820096</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>2481026812.74739</v>
+        <v>2481026812.747166</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>2488508204.51603</v>
+        <v>2488508204.515804</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>2496097064.09779</v>
+        <v>2496097064.097563</v>
       </c>
     </row>
     <row r="82">
@@ -1083,7 +1083,7 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>2503793301.476742</v>
+        <v>2503793301.476513</v>
       </c>
     </row>
     <row r="83">
@@ -1091,7 +1091,7 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>2511599375.86972</v>
+        <v>2511599375.869493</v>
       </c>
     </row>
     <row r="84">
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2519515456.602367</v>
+        <v>2519515456.602136</v>
       </c>
     </row>
     <row r="85">
@@ -1107,7 +1107,7 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>2527545165.693846</v>
+        <v>2527545165.693613</v>
       </c>
     </row>
     <row r="86">
@@ -1115,7 +1115,7 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>2535688243.738586</v>
+        <v>2535688243.738349</v>
       </c>
     </row>
     <row r="87">
@@ -1123,7 +1123,7 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>2543948415.724522</v>
+        <v>2543948415.724282</v>
       </c>
     </row>
     <row r="88">
@@ -1131,7 +1131,7 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>2552324213.241264</v>
+        <v>2552324213.241024</v>
       </c>
     </row>
     <row r="89">
@@ -1139,7 +1139,7 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>2560820366.346466</v>
+        <v>2560820366.346223</v>
       </c>
     </row>
     <row r="90">
@@ -1147,7 +1147,7 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>2569436219.580472</v>
+        <v>2569436219.580232</v>
       </c>
     </row>
     <row r="91">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2578175422.523264</v>
+        <v>2578175422.52302</v>
       </c>
     </row>
     <row r="92">
@@ -1163,7 +1163,7 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>2587037059.409885</v>
+        <v>2587037059.409639</v>
       </c>
     </row>
     <row r="93">
@@ -1171,7 +1171,7 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>2596025283.255594</v>
+        <v>2596025283.255349</v>
       </c>
     </row>
     <row r="94">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2605140860.417963</v>
+        <v>2605140860.417713</v>
       </c>
     </row>
     <row r="95">
@@ -1187,7 +1187,7 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>2614384911.100444</v>
+        <v>2614384911.100191</v>
       </c>
     </row>
     <row r="96">
@@ -1195,7 +1195,7 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>2623761742.671799</v>
+        <v>2623761742.671542</v>
       </c>
     </row>
     <row r="97">
@@ -1203,7 +1203,7 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>2633269355.035767</v>
+        <v>2633269355.035509</v>
       </c>
     </row>
     <row r="98">
@@ -1211,7 +1211,7 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>2642911741.938412</v>
+        <v>2642911741.938148</v>
       </c>
     </row>
     <row r="99">
@@ -1219,7 +1219,7 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>2652691338.678057</v>
+        <v>2652691338.677796</v>
       </c>
     </row>
     <row r="100">
@@ -1227,7 +1227,7 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>2662609129.544691</v>
+        <v>2662609129.544422</v>
       </c>
     </row>
     <row r="101">
@@ -1235,7 +1235,7 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>2672666872.084159</v>
+        <v>2672666872.083894</v>
       </c>
     </row>
     <row r="102">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2682867561.085286</v>
+        <v>2682867561.085015</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2693210949.473764</v>
+        <v>2693210949.473497</v>
       </c>
     </row>
     <row r="104">
@@ -1259,7 +1259,7 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>2703700965.127103</v>
+        <v>2703700965.126825</v>
       </c>
     </row>
     <row r="105">
@@ -1267,7 +1267,7 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>2714340135.985356</v>
+        <v>2714340135.985079</v>
       </c>
     </row>
     <row r="106">
@@ -1275,7 +1275,7 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>2725127419.452473</v>
+        <v>2725127419.45219</v>
       </c>
     </row>
     <row r="107">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2736068690.234909</v>
+        <v>2736068690.23462</v>
       </c>
     </row>
     <row r="108">
@@ -1291,7 +1291,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>2747163776.903384</v>
+        <v>2747163776.903096</v>
       </c>
     </row>
     <row r="109">
@@ -1299,7 +1299,7 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>2758415356.807035</v>
+        <v>2758415356.806745</v>
       </c>
     </row>
     <row r="110">
@@ -1307,7 +1307,7 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>2769824332.483077</v>
+        <v>2769824332.482784</v>
       </c>
     </row>
     <row r="111">
@@ -1315,7 +1315,7 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>2781394926.24462</v>
+        <v>2781394926.244324</v>
       </c>
     </row>
     <row r="112">
@@ -1323,7 +1323,7 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>2793129287.573997</v>
+        <v>2793129287.573696</v>
       </c>
     </row>
     <row r="113">
@@ -1331,7 +1331,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>2805027453.141021</v>
+        <v>2805027453.140718</v>
       </c>
     </row>
     <row r="114">
@@ -1339,7 +1339,7 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>2817093177.915387</v>
+        <v>2817093177.915083</v>
       </c>
     </row>
     <row r="115">
@@ -1347,7 +1347,7 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>2829330363.114701</v>
+        <v>2829330363.114398</v>
       </c>
     </row>
     <row r="116">
@@ -1355,7 +1355,7 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>2841738505.216976</v>
+        <v>2841738505.216672</v>
       </c>
     </row>
     <row r="117">
@@ -1363,7 +1363,7 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>2854319420.944006</v>
+        <v>2854319420.943693</v>
       </c>
     </row>
     <row r="118">
@@ -1371,7 +1371,7 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>2867078130.00293</v>
+        <v>2867078130.00261</v>
       </c>
     </row>
     <row r="119">
@@ -1379,7 +1379,7 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>2880017028.723805</v>
+        <v>2880017028.723484</v>
       </c>
     </row>
     <row r="120">
@@ -1387,7 +1387,7 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>2893137214.586604</v>
+        <v>2893137214.586282</v>
       </c>
     </row>
     <row r="121">
@@ -1395,7 +1395,7 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>2906440284.929407</v>
+        <v>2906440284.929082</v>
       </c>
     </row>
     <row r="122">
@@ -1403,7 +1403,7 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>2919930314.606479</v>
+        <v>2919930314.606152</v>
       </c>
     </row>
     <row r="123">
@@ -1411,7 +1411,7 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>2933609317.310183</v>
+        <v>2933609317.309857</v>
       </c>
     </row>
     <row r="124">
@@ -1419,7 +1419,7 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>2947481751.874609</v>
+        <v>2947481751.874288</v>
       </c>
     </row>
     <row r="125">
@@ -1427,7 +1427,7 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>2961545193.459412</v>
+        <v>2961545193.459076</v>
       </c>
     </row>
     <row r="126">
@@ -1435,7 +1435,7 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>2975808765.784482</v>
+        <v>2975808765.784144</v>
       </c>
     </row>
     <row r="127">
@@ -1443,7 +1443,7 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>2990270576.353929</v>
+        <v>2990270576.353598</v>
       </c>
     </row>
     <row r="128">
@@ -1451,7 +1451,7 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>3004936037.627391</v>
+        <v>3004936037.627059</v>
       </c>
     </row>
     <row r="129">
@@ -1459,7 +1459,7 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>3019804339.507375</v>
+        <v>3019804339.50703</v>
       </c>
     </row>
     <row r="130">
@@ -1467,7 +1467,7 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>3034882721.764188</v>
+        <v>3034882721.763843</v>
       </c>
     </row>
     <row r="131">
@@ -1475,7 +1475,7 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>3050170808.036109</v>
+        <v>3050170808.035766</v>
       </c>
     </row>
     <row r="132">
@@ -1483,7 +1483,7 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>3065673582.096919</v>
+        <v>3065673582.096571</v>
       </c>
     </row>
     <row r="133">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3081390739.207226</v>
+        <v>3081390739.206878</v>
       </c>
     </row>
     <row r="134">
@@ -1499,7 +1499,7 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>3097330023.65723</v>
+        <v>3097330023.656876</v>
       </c>
     </row>
     <row r="135">
@@ -1507,7 +1507,7 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>3113490313.269359</v>
+        <v>3113490313.269004</v>
       </c>
     </row>
     <row r="136">
@@ -1515,7 +1515,7 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>3129876895.341556</v>
+        <v>3129876895.341197</v>
       </c>
     </row>
     <row r="137">
@@ -1523,7 +1523,7 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>3146490444.521179</v>
+        <v>3146490444.52082</v>
       </c>
     </row>
     <row r="138">
@@ -1531,7 +1531,7 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>3163338632.673133</v>
+        <v>3163338632.672777</v>
       </c>
     </row>
     <row r="139">
@@ -1539,7 +1539,7 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>3180418515.318353</v>
+        <v>3180418515.317988</v>
       </c>
     </row>
     <row r="140">
@@ -1547,7 +1547,7 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>3197738296.479166</v>
+        <v>3197738296.478796</v>
       </c>
     </row>
     <row r="141">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3215298817.577816</v>
+        <v>3215298817.577447</v>
       </c>
     </row>
     <row r="142">
@@ -1563,7 +1563,7 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>3233104900.385302</v>
+        <v>3233104900.384947</v>
       </c>
     </row>
     <row r="143">
@@ -1571,7 +1571,7 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>3251155002.896908</v>
+        <v>3251155002.896543</v>
       </c>
     </row>
     <row r="144">
@@ -1579,7 +1579,7 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>3269460619.719211</v>
+        <v>3269460619.718836</v>
       </c>
     </row>
     <row r="145">
@@ -1587,7 +1587,7 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>3288018668.590996</v>
+        <v>3288018668.590628</v>
       </c>
     </row>
     <row r="146">
@@ -1595,7 +1595,7 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>3306835148.888885</v>
+        <v>3306835148.888515</v>
       </c>
     </row>
     <row r="147">
@@ -1603,7 +1603,7 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>3325912566.108235</v>
+        <v>3325912566.107856</v>
       </c>
     </row>
     <row r="148">
@@ -1611,7 +1611,7 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>3345257882.163918</v>
+        <v>3345258101.163544</v>
       </c>
     </row>
     <row r="149">
@@ -1619,7 +1619,7 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>3364868163.201485</v>
+        <v>3364868163.201101</v>
       </c>
     </row>
     <row r="150">
@@ -1627,7 +1627,7 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>3384754142.00019</v>
+        <v>3384754141.999806</v>
       </c>
     </row>
     <row r="151">
@@ -1635,7 +1635,7 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>3404913971.948538</v>
+        <v>3404913971.948161</v>
       </c>
     </row>
     <row r="152">
@@ -1643,7 +1643,7 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>3425354347.122975</v>
+        <v>3425354347.122598</v>
       </c>
     </row>
     <row r="153">
@@ -1651,7 +1651,7 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>3446078012.551781</v>
+        <v>3446078012.551403</v>
       </c>
     </row>
     <row r="154">
@@ -1659,7 +1659,7 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>3467089727.462876</v>
+        <v>3467089946.462492</v>
       </c>
     </row>
     <row r="155">
@@ -1667,7 +1667,7 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>3488392103.980564</v>
+        <v>3488392103.980175</v>
       </c>
     </row>
     <row r="156">
@@ -1675,7 +1675,7 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>3509991785.26037</v>
+        <v>3509991566.259983</v>
       </c>
     </row>
     <row r="157">
@@ -1683,7 +1683,7 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>3531887713.417586</v>
+        <v>3531887713.417211</v>
       </c>
     </row>
     <row r="158">
@@ -1691,7 +1691,7 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>3554087344.578665</v>
+        <v>3554087563.57828</v>
       </c>
     </row>
     <row r="159">
@@ -1699,7 +1699,7 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>3576593357.562255</v>
+        <v>3576593357.561868</v>
       </c>
     </row>
     <row r="160">
@@ -1707,7 +1707,7 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>3599413495.166563</v>
+        <v>3599413495.16618</v>
       </c>
     </row>
     <row r="161">
@@ -1715,7 +1715,7 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>3622548704.787588</v>
+        <v>3622548704.7872</v>
       </c>
     </row>
     <row r="162">
@@ -1723,7 +1723,7 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>3646004608.695323</v>
+        <v>3646004608.694933</v>
       </c>
     </row>
     <row r="163">
@@ -1731,7 +1731,7 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>3669784443.558047</v>
+        <v>3669784443.55767</v>
       </c>
     </row>
     <row r="164">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3693894282.068661</v>
+        <v>3693894282.068278</v>
       </c>
     </row>
     <row r="165">
@@ -1747,7 +1747,7 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>3718338316.53479</v>
+        <v>3718338316.534407</v>
       </c>
     </row>
     <row r="166">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3743119363.711652</v>
+        <v>3743119363.711272</v>
       </c>
     </row>
     <row r="167">
@@ -1763,7 +1763,7 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>3768242997.329861</v>
+        <v>3768242997.329469</v>
       </c>
     </row>
     <row r="168">
@@ -1771,7 +1771,7 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>3793716094.763052</v>
+        <v>3793716094.762674</v>
       </c>
     </row>
     <row r="169">
@@ -1779,7 +1779,7 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>3819537858.50223</v>
+        <v>3819537858.501842</v>
       </c>
     </row>
     <row r="170">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3845720261.252741</v>
+        <v>3845720261.252351</v>
       </c>
     </row>
     <row r="171">
@@ -1795,7 +1795,7 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>3872262011.057324</v>
+        <v>3872262011.05695</v>
       </c>
     </row>
     <row r="172">
@@ -1803,7 +1803,7 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>3899173406.190725</v>
+        <v>3899173187.190342</v>
       </c>
     </row>
     <row r="173">
@@ -1811,7 +1811,7 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>3926452633.069948</v>
+        <v>3926452633.068303</v>
       </c>
     </row>
     <row r="174">
@@ -1819,7 +1819,7 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>3954113633.08545</v>
+        <v>3954113633.08507</v>
       </c>
     </row>
     <row r="175">
@@ -1827,7 +1827,7 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>3982152014.401069</v>
+        <v>3982152014.400672</v>
       </c>
     </row>
     <row r="176">
@@ -1835,7 +1835,7 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4010582178.583288</v>
+        <v>4010582178.582893</v>
       </c>
     </row>
     <row r="177">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4039400533.49576</v>
+        <v>4039400533.495361</v>
       </c>
     </row>
     <row r="178">
@@ -1851,7 +1851,7 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4068622488.355793</v>
+        <v>4068622488.355408</v>
       </c>
     </row>
     <row r="179">
@@ -1859,7 +1859,7 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>4098242183.004927</v>
+        <v>4098242183.004536</v>
       </c>
     </row>
     <row r="180">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4128276109.423006</v>
+        <v>4128276109.422611</v>
       </c>
     </row>
     <row r="181">
@@ -1875,7 +1875,7 @@
         <v>179</v>
       </c>
       <c r="B181" t="n">
-        <v>4158720148.646173</v>
+        <v>4158720148.645797</v>
       </c>
     </row>
     <row r="182">
@@ -1883,7 +1883,7 @@
         <v>180</v>
       </c>
       <c r="B182" t="n">
-        <v>4189589396.979265</v>
+        <v>4189589396.978885</v>
       </c>
     </row>
     <row r="183">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4220879997.661005</v>
+        <v>4220879997.660602</v>
       </c>
     </row>
     <row r="184">
@@ -1899,7 +1899,7 @@
         <v>182</v>
       </c>
       <c r="B184" t="n">
-        <v>4252608596.335671</v>
+        <v>4252608596.335268</v>
       </c>
     </row>
     <row r="185">
@@ -1907,7 +1907,7 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>4284769598.618806</v>
+        <v>4284769598.6184</v>
       </c>
     </row>
     <row r="186">
@@ -1915,7 +1915,7 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>4317380280.465104</v>
+        <v>4317380280.464694</v>
       </c>
     </row>
     <row r="187">
@@ -1923,7 +1923,7 @@
         <v>185</v>
       </c>
       <c r="B187" t="n">
-        <v>4350438009.597613</v>
+        <v>4350438009.597204</v>
       </c>
     </row>
     <row r="188">
@@ -1931,7 +1931,7 @@
         <v>186</v>
       </c>
       <c r="B188" t="n">
-        <v>4383955370.067511</v>
+        <v>4383955370.067122</v>
       </c>
     </row>
     <row r="189">
@@ -1939,7 +1939,7 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>4417932471.294792</v>
+        <v>4417932471.294386</v>
       </c>
     </row>
     <row r="190">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4452383446.90184</v>
+        <v>4452383446.901434</v>
       </c>
     </row>
     <row r="191">
@@ -1955,7 +1955,7 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>4487306752.007385</v>
+        <v>4487306752.006979</v>
       </c>
     </row>
     <row r="192">
@@ -1963,7 +1963,7 @@
         <v>190</v>
       </c>
       <c r="B192" t="n">
-        <v>4522716969.941672</v>
+        <v>4522716969.941264</v>
       </c>
     </row>
     <row r="193">
@@ -1971,7 +1971,7 @@
         <v>191</v>
       </c>
       <c r="B193" t="n">
-        <v>4558613113.214097</v>
+        <v>4558613113.213716</v>
       </c>
     </row>
     <row r="194">
@@ -1979,7 +1979,7 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>4595009067.086094</v>
+        <v>4595009286.08569</v>
       </c>
     </row>
     <row r="195">
@@ -1987,7 +1987,7 @@
         <v>193</v>
       </c>
       <c r="B195" t="n">
-        <v>4631905593.780021</v>
+        <v>4631905593.779608</v>
       </c>
     </row>
     <row r="196">
@@ -1995,7 +1995,7 @@
         <v>194</v>
       </c>
       <c r="B196" t="n">
-        <v>4669316142.81266</v>
+        <v>4669316142.812242</v>
       </c>
     </row>
     <row r="197">
@@ -2003,7 +2003,7 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>4707243232.204408</v>
+        <v>4707243232.20399</v>
       </c>
     </row>
     <row r="198">
@@ -2011,7 +2011,7 @@
         <v>196</v>
       </c>
       <c r="B198" t="n">
-        <v>4745695000.872828</v>
+        <v>4745695000.872401</v>
       </c>
     </row>
     <row r="199">
@@ -2019,7 +2019,7 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>4784680294.932563</v>
+        <v>4784680294.932136</v>
       </c>
     </row>
     <row r="200">
@@ -2027,7 +2027,7 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>4824207020.432088</v>
+        <v>4824207020.431668</v>
       </c>
     </row>
     <row r="201">
@@ -2035,7 +2035,7 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>4864279680.89009</v>
+        <v>4864279680.889648</v>
       </c>
     </row>
     <row r="202">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4904910425.515305</v>
+        <v>4904910425.514892</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4946105363.485628</v>
+        <v>4946105363.485181</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4987871031.267405</v>
+        <v>4987871031.266984</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5030217847.187349</v>
+        <v>5030217847.186921</v>
       </c>
     </row>
     <row r="206">
@@ -2075,7 +2075,7 @@
         <v>204</v>
       </c>
       <c r="B206" t="n">
-        <v>5073153490.236794</v>
+        <v>5073153490.23636</v>
       </c>
     </row>
     <row r="207">
@@ -2083,7 +2083,7 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
-        <v>5116685994.207702</v>
+        <v>5116685994.207247</v>
       </c>
     </row>
     <row r="208">
@@ -2091,7 +2091,7 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>5160825302.426821</v>
+        <v>5160825302.426376</v>
       </c>
     </row>
     <row r="209">
@@ -2099,7 +2099,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>5205579525.413706</v>
+        <v>5205579525.413261</v>
       </c>
     </row>
     <row r="210">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5250957804.676571</v>
+        <v>5250957804.676111</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5296967493.115937</v>
+        <v>5296967493.115502</v>
       </c>
     </row>
     <row r="212">
@@ -2123,7 +2123,7 @@
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>5343620616.331939</v>
+        <v>5343620616.331489</v>
       </c>
     </row>
     <row r="213">
@@ -2131,7 +2131,7 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>5390925842.201008</v>
+        <v>5390925842.200624</v>
       </c>
     </row>
     <row r="214">
@@ -2139,7 +2139,7 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>5438892058.614079</v>
+        <v>5438892058.613634</v>
       </c>
     </row>
     <row r="215">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487530353.735115</v>
+        <v>5487530353.734644</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5536849654.539299</v>
+        <v>5536849654.538823</v>
       </c>
     </row>
     <row r="217">
@@ -2163,7 +2163,7 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>5586859987.328229</v>
+        <v>5586859987.327757</v>
       </c>
     </row>
     <row r="218">
@@ -2171,7 +2171,7 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>5637573701.623627</v>
+        <v>5637573701.623141</v>
       </c>
     </row>
     <row r="219">
@@ -2179,7 +2179,7 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>5688999604.74789</v>
+        <v>5688999604.747389</v>
       </c>
     </row>
     <row r="220">
@@ -2187,7 +2187,7 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>5741148300.531031</v>
+        <v>5741148300.530534</v>
       </c>
     </row>
     <row r="221">
@@ -2195,7 +2195,7 @@
         <v>219</v>
       </c>
       <c r="B221" t="n">
-        <v>5794031852.236032</v>
+        <v>5794031852.235516</v>
       </c>
     </row>
     <row r="222">
@@ -2203,7 +2203,7 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>5847662355.055492</v>
+        <v>5847662355.055002</v>
       </c>
     </row>
     <row r="223">
@@ -2211,7 +2211,7 @@
         <v>221</v>
       </c>
       <c r="B223" t="n">
-        <v>5902047560.65594</v>
+        <v>5902047560.655438</v>
       </c>
     </row>
     <row r="224">
@@ -2219,7 +2219,7 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>5957202150.803892</v>
+        <v>5957202150.803407</v>
       </c>
     </row>
     <row r="225">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6013137729.137671</v>
+        <v>6013137729.137163</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6069864712.114258</v>
+        <v>6069864712.113747</v>
       </c>
     </row>
     <row r="227">
@@ -2243,7 +2243,7 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
-        <v>6127397994.626786</v>
+        <v>6127397994.626259</v>
       </c>
     </row>
     <row r="228">
@@ -2251,7 +2251,7 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>6185748254.494116</v>
+        <v>6185748254.493587</v>
       </c>
     </row>
     <row r="229">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6244930060.184892</v>
+        <v>6244930060.184353</v>
       </c>
     </row>
     <row r="230">
@@ -2267,7 +2267,7 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>6304950659.69581</v>
+        <v>6304950659.695273</v>
       </c>
     </row>
     <row r="231">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6365833369.551651</v>
+        <v>6365833369.551116</v>
       </c>
     </row>
     <row r="232">
@@ -2283,7 +2283,7 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>6427584360.373694</v>
+        <v>6427584360.373165</v>
       </c>
     </row>
     <row r="233">
@@ -2291,7 +2291,7 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>6490219036.532533</v>
+        <v>6490219036.532022</v>
       </c>
     </row>
     <row r="234">
@@ -2299,7 +2299,7 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
-        <v>6553751760.188979</v>
+        <v>6553751760.188413</v>
       </c>
     </row>
     <row r="235">
@@ -2307,7 +2307,7 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>6618200210.280345</v>
+        <v>6618200210.279812</v>
       </c>
     </row>
     <row r="236">
@@ -2315,7 +2315,7 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>6683572451.112101</v>
+        <v>6683572451.111535</v>
       </c>
     </row>
     <row r="237">
@@ -2323,7 +2323,7 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>6749888784.088862</v>
+        <v>6749888784.088309</v>
       </c>
     </row>
     <row r="238">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817164677.950579</v>
+        <v>6817164677.950049</v>
       </c>
     </row>
     <row r="239">
@@ -2339,7 +2339,7 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>6885411163.120297</v>
+        <v>6885411163.11972</v>
       </c>
     </row>
     <row r="240">
@@ -2347,7 +2347,7 @@
         <v>238</v>
       </c>
       <c r="B240" t="n">
-        <v>6954650393.382157</v>
+        <v>6954650393.381596</v>
       </c>
     </row>
     <row r="241">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7024895264.294799</v>
+        <v>7024895264.294232</v>
       </c>
     </row>
     <row r="242">
@@ -2363,7 +2363,7 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>7096161657.424824</v>
+        <v>7096161657.424273</v>
       </c>
     </row>
     <row r="243">
@@ -2371,7 +2371,7 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>7168466632.269297</v>
+        <v>7168466632.268761</v>
       </c>
     </row>
     <row r="244">
@@ -2379,7 +2379,7 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>7241834033.193437</v>
+        <v>7241834033.192856</v>
       </c>
     </row>
     <row r="245">
@@ -2387,7 +2387,7 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>7316271516.063814</v>
+        <v>7316271243.063237</v>
       </c>
     </row>
     <row r="246">
@@ -2395,7 +2395,7 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>7391806015.266739</v>
+        <v>7391805742.266156</v>
       </c>
     </row>
     <row r="247">
@@ -2403,7 +2403,7 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>7468450212.945902</v>
+        <v>7468450604.77105</v>
       </c>
     </row>
     <row r="248">
@@ -2411,7 +2411,7 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>7546228122.995893</v>
+        <v>7546228207.523749</v>
       </c>
     </row>
     <row r="249">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7625154213.176849</v>
+        <v>7625154279.410969</v>
       </c>
     </row>
     <row r="250">
@@ -2427,7 +2427,7 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
-        <v>7705251968.983586</v>
+        <v>7705251977.908291</v>
       </c>
     </row>
     <row r="251">
@@ -2435,7 +2435,7 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>7786540301.734158</v>
+        <v>7786540292.959719</v>
       </c>
     </row>
     <row r="252">
@@ -2443,7 +2443,7 @@
         <v>250</v>
       </c>
       <c r="B252" t="n">
-        <v>7869037514.177157</v>
+        <v>7869037522.79636</v>
       </c>
     </row>
     <row r="253">
@@ -2451,7 +2451,7 @@
         <v>251</v>
       </c>
       <c r="B253" t="n">
-        <v>7952771617.135534</v>
+        <v>7952771881.671408</v>
       </c>
     </row>
     <row r="254">
@@ -2459,7 +2459,7 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>8037756426.471581</v>
+        <v>8037756707.776152</v>
       </c>
     </row>
     <row r="255">
@@ -2467,7 +2467,7 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>8124019399.261948</v>
+        <v>8124019259.524229</v>
       </c>
     </row>
     <row r="256">
@@ -2475,7 +2475,7 @@
         <v>254</v>
       </c>
       <c r="B256" t="n">
-        <v>8211580561.644727</v>
+        <v>8211581036.80776</v>
       </c>
     </row>
     <row r="257">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>8300466206.80072</v>
+        <v>8300466283.140719</v>
       </c>
     </row>
     <row r="258">
@@ -2491,7 +2491,7 @@
         <v>256</v>
       </c>
       <c r="B258" t="n">
-        <v>8390693222.602459</v>
+        <v>8390693001.87343</v>
       </c>
     </row>
     <row r="259">
@@ -2499,7 +2499,7 @@
         <v>257</v>
       </c>
       <c r="B259" t="n">
-        <v>8482294327.741354</v>
+        <v>8482294066.479533</v>
       </c>
     </row>
     <row r="260">
@@ -2507,7 +2507,7 @@
         <v>258</v>
       </c>
       <c r="B260" t="n">
-        <v>8575288046.972179</v>
+        <v>8575288988.435668</v>
       </c>
     </row>
     <row r="261">
@@ -2515,7 +2515,7 @@
         <v>259</v>
       </c>
       <c r="B261" t="n">
-        <v>8669702688.520958</v>
+        <v>8669702659.191576</v>
       </c>
     </row>
     <row r="262">
@@ -2523,7 +2523,7 @@
         <v>260</v>
       </c>
       <c r="B262" t="n">
-        <v>8765561844.218019</v>
+        <v>8765561756.562939</v>
       </c>
     </row>
     <row r="263">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8862892535.830854</v>
+        <v>8862893132.1094</v>
       </c>
     </row>
     <row r="264">
@@ -2539,7 +2539,7 @@
         <v>262</v>
       </c>
       <c r="B264" t="n">
-        <v>8961724400.23304</v>
+        <v>8961724160.301502</v>
       </c>
     </row>
     <row r="265">
@@ -2547,7 +2547,7 @@
         <v>263</v>
       </c>
       <c r="B265" t="n">
-        <v>9062079593.599874</v>
+        <v>9062080603.037828</v>
       </c>
     </row>
     <row r="266">
@@ -2555,7 +2555,7 @@
         <v>264</v>
       </c>
       <c r="B266" t="n">
-        <v>9163993849.080465</v>
+        <v>9163993991.72834</v>
       </c>
     </row>
     <row r="267">
@@ -2563,7 +2563,7 @@
         <v>265</v>
       </c>
       <c r="B267" t="n">
-        <v>9267487728.877844</v>
+        <v>9267487281.861353</v>
       </c>
     </row>
     <row r="268">
@@ -2571,7 +2571,7 @@
         <v>266</v>
       </c>
       <c r="B268" t="n">
-        <v>9372596864.651907</v>
+        <v>9372595948.422798</v>
       </c>
     </row>
     <row r="269">
@@ -2579,7 +2579,7 @@
         <v>267</v>
       </c>
       <c r="B269" t="n">
-        <v>9479348595.300964</v>
+        <v>9479350361.893858</v>
       </c>
     </row>
     <row r="270">
@@ -2587,7 +2587,7 @@
         <v>268</v>
       </c>
       <c r="B270" t="n">
-        <v>9587776733.461727</v>
+        <v>9587775865.790495</v>
       </c>
     </row>
     <row r="271">
@@ -2595,7 +2595,7 @@
         <v>269</v>
       </c>
       <c r="B271" t="n">
-        <v>9697906982.918606</v>
+        <v>9697907643.332705</v>
       </c>
     </row>
     <row r="272">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9809778944.442406</v>
+        <v>9809779200.296534</v>
       </c>
     </row>
     <row r="273">
@@ -2611,7 +2611,7 @@
         <v>271</v>
       </c>
       <c r="B273" t="n">
-        <v>9923418144.536459</v>
+        <v>9923417928.831087</v>
       </c>
     </row>
     <row r="274">
@@ -2619,7 +2619,7 @@
         <v>272</v>
       </c>
       <c r="B274" t="n">
-        <v>10038862758.16077</v>
+        <v>10038862386.21799</v>
       </c>
     </row>
     <row r="275">
@@ -2627,7 +2627,7 @@
         <v>273</v>
       </c>
       <c r="B275" t="n">
-        <v>10156145475.21699</v>
+        <v>10156145482.45669</v>
       </c>
     </row>
     <row r="276">
@@ -2635,7 +2635,7 @@
         <v>274</v>
       </c>
       <c r="B276" t="n">
-        <v>10275300547.60483</v>
+        <v>10275300568.55211</v>
       </c>
     </row>
     <row r="277">
@@ -2643,7 +2643,7 @@
         <v>275</v>
       </c>
       <c r="B277" t="n">
-        <v>10396364474.53922</v>
+        <v>10396364878.73385</v>
       </c>
     </row>
     <row r="278">
@@ -2651,7 +2651,7 @@
         <v>276</v>
       </c>
       <c r="B278" t="n">
-        <v>10519376783.96411</v>
+        <v>10519376687.95748</v>
       </c>
     </row>
     <row r="279">
@@ -2659,7 +2659,7 @@
         <v>277</v>
       </c>
       <c r="B279" t="n">
-        <v>10644371013.32281</v>
+        <v>10644371231.46903</v>
       </c>
     </row>
     <row r="280">
@@ -2667,7 +2667,7 @@
         <v>278</v>
       </c>
       <c r="B280" t="n">
-        <v>10771384345.86182</v>
+        <v>10771385304.25392</v>
       </c>
     </row>
     <row r="281">
@@ -2675,7 +2675,7 @@
         <v>279</v>
       </c>
       <c r="B281" t="n">
-        <v>10900462157.8933</v>
+        <v>10900461500.29547</v>
       </c>
     </row>
     <row r="282">
@@ -2683,7 +2683,7 @@
         <v>280</v>
       </c>
       <c r="B282" t="n">
-        <v>11031634818.79165</v>
+        <v>11031635340.33485</v>
       </c>
     </row>
     <row r="283">
@@ -2691,7 +2691,7 @@
         <v>281</v>
       </c>
       <c r="B283" t="n">
-        <v>11164951700.27343</v>
+        <v>11164950291.3082</v>
       </c>
     </row>
     <row r="284">
@@ -2699,7 +2699,7 @@
         <v>282</v>
       </c>
       <c r="B284" t="n">
-        <v>11300447395.31211</v>
+        <v>11300447464.379</v>
       </c>
     </row>
     <row r="285">
@@ -2707,7 +2707,7 @@
         <v>283</v>
       </c>
       <c r="B285" t="n">
-        <v>11438166220.82712</v>
+        <v>11438167176.76155</v>
       </c>
     </row>
     <row r="286">
@@ -2715,7 +2715,7 @@
         <v>284</v>
       </c>
       <c r="B286" t="n">
-        <v>11578154504.23804</v>
+        <v>11578153907.80356</v>
       </c>
     </row>
     <row r="287">
@@ -2723,7 +2723,7 @@
         <v>285</v>
       </c>
       <c r="B287" t="n">
-        <v>11720451551.56901</v>
+        <v>11720450282.82598</v>
       </c>
     </row>
     <row r="288">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865103897.39263</v>
+        <v>11865104249.70735</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012155083.45255</v>
+        <v>12012154395.69483</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161656207.08433</v>
+        <v>12161656042.49296</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313648948.72556</v>
+        <v>12313648766.30159</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468189206.61028</v>
+        <v>12468188086.41227</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625316172.59946</v>
+        <v>12625316781.34746</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785088233.46329</v>
+        <v>12785087601.16103</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947550588.31529</v>
+        <v>12947550264.60285</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112758098.04309</v>
+        <v>13112758206.17079</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280763176.77412</v>
+        <v>13280762999.19874</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451616755.06759</v>
+        <v>13451616077.75793</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625374929.47569</v>
+        <v>13625375386.30542</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802094465.56626</v>
+        <v>13802094195.48817</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981826297.79817</v>
+        <v>13981825799.84312</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164633844.13758</v>
+        <v>14164634490.3228</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316868065.51152</v>
+        <v>14316866834.73485</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471762976.59959</v>
+        <v>14471762996.91301</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629356423.62662</v>
+        <v>14629354974.05636</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789701432.86103</v>
+        <v>14789703003.4039</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952854860.02998</v>
+        <v>14952855763.95685</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118864149.65591</v>
+        <v>15118864279.25887</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287785962.24028</v>
+        <v>15287785959.52738</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459667543.51037</v>
+        <v>15459667882.56092</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634567661.29946</v>
+        <v>15634566140.49358</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812537768.81039</v>
+        <v>15812537420.17578</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993633965.94591</v>
+        <v>15993633388.61675</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177912406.19309</v>
+        <v>16177911085.05168</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365424963.65233</v>
+        <v>16365424492.21366</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556227241.97239</v>
+        <v>16556227358.50419</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750383280.32377</v>
+        <v>16750383826.8418</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947939936.41692</v>
+        <v>16947939883.20425</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148960817.36503</v>
+        <v>17148960745.80925</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353499841.90049</v>
+        <v>17353500369.39544</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561611466.70222</v>
+        <v>17561612004.64895</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773357356.60613</v>
+        <v>17773358325.29666</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988794039.65254</v>
+        <v>17988794209.84412</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207977871.21556</v>
+        <v>18207978464.69877</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430967124.36834</v>
+        <v>18430967285.0562</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657815125.27998</v>
+        <v>18657815370.38221</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888582460.21159</v>
+        <v>18888583966.1245</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123324802.98704</v>
+        <v>19123325670.5308</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362098302.34279</v>
+        <v>19362098634.33613</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604958526.59029</v>
+        <v>19604959091.83744</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851960769.97374</v>
+        <v>19851960501.45461</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103160256.06564</v>
+        <v>20103159452.002</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358608032.68411</v>
+        <v>20358607836.72423</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618359855.12103</v>
+        <v>20618360239.49514</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882468914.92345</v>
+        <v>20882468581.81121</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150983720.67014</v>
+        <v>21150984402.83554</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423959900.68146</v>
+        <v>21423958963.61213</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701440064.46295</v>
+        <v>21701438408.41095</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983474670.58469</v>
+        <v>21983473679.30135</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270111632.15013</v>
+        <v>22270110743.50013</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561396653.60631</v>
+        <v>22561398025.67408</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857369628.1791</v>
+        <v>22857370152.31507</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158076113.15362</v>
+        <v>23158076149.51661</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463558484.33343</v>
+        <v>23463557253.17918</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773848557.26277</v>
+        <v>23773847682.0096</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088987485.42239</v>
+        <v>24088988138.24259</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409008161.41386</v>
+        <v>24409009344.14021</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733944695.76267</v>
+        <v>24733944795.8876</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063823240.25132</v>
+        <v>25063823138.26749</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398677551.06616</v>
+        <v>25398678300.99375</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738525058.45218</v>
+        <v>25738524507.93797</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083393960.61514</v>
+        <v>26083393143.6345</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433298864.6455</v>
+        <v>26433299378.39998</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788263756.62401</v>
+        <v>26788264086.24459</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148296309.24984</v>
+        <v>27148295813.27644</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513408560.35504</v>
+        <v>27513408476.40976</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883609269.08095</v>
+        <v>27883610198.84897</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252237678.00124</v>
+        <v>28252237880.88615</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625875779.3116</v>
+        <v>28625873554.81377</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004511842.48681</v>
+        <v>29004513053.27608</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388149000.37703</v>
+        <v>29388149257.67736</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776774629.93819</v>
+        <v>29776773949.10216</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170376247.73244</v>
+        <v>30170377258.49461</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568938538.17593</v>
+        <v>30568936652.28563</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972436988.19038</v>
+        <v>30972437024.02977</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380853682.52018</v>
+        <v>31380852281.1351</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794156321.82282</v>
+        <v>31794154907.82723</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212315888.89773</v>
+        <v>32212315426.98137</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635294810.46419</v>
+        <v>32635294574.91891</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063055342.58815</v>
+        <v>33063053589.22939</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495551448.69551</v>
+        <v>33495551457.53838</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932740225.86945</v>
+        <v>33932738900.83964</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311276449.39563</v>
+        <v>34311276362.04671</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693710891.51314</v>
+        <v>34693710297.17608</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079985545.53459</v>
+        <v>35079985749.04618</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470042326.07714</v>
+        <v>35470041298.78693</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863820140.10318</v>
+        <v>35863821109.82446</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261253916.80518</v>
+        <v>36261253649.77431</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661835025.06287</v>
+        <v>36661834042.64733</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37060657150.15664</v>
+        <v>37060656306.0829</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37445280252.47012</v>
+        <v>37445280497.73796</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37801221174.68129</v>
+        <v>37801219870.78228</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38281363055.73478</v>
+        <v>38281362562.80878</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38722099577.17403</v>
+        <v>38722098688.49714</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39127595996.00301</v>
+        <v>39127597173.39725</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39505964630.07344</v>
+        <v>39505963096.21147</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39866837070.31576</v>
+        <v>39866839138.133</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>40219670336.78915</v>
+        <v>40219671903.13824</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40572750673.22153</v>
+        <v>40572752763.92094</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40932781465.53497</v>
+        <v>40932781816.12041</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41304816810.4586</v>
+        <v>41304816512.0144</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41692402273.93326</v>
+        <v>41692400761.06241</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41827717094.72745</v>
+        <v>41827716289.05635</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41981831130.44463</v>
+        <v>41981830781.99329</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>42154945303.14653</v>
+        <v>42154948017.34492</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>42346676125.11169</v>
+        <v>42346676271.83942</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>42556235806.90793</v>
+        <v>42556235582.45915</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42782591116.08569</v>
+        <v>42782590141.06301</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>43024549460.70847</v>
+        <v>43024550174.08565</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>43280858028.25491</v>
+        <v>43280857881.80442</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>43550246105.06527</v>
+        <v>43550247086.53371</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43831476056.01742</v>
+        <v>43831476273.00362</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43846682916.69071</v>
+        <v>43846683116.73582</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43870435216.3786</v>
+        <v>43870437130.15469</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43901577399.4832</v>
+        <v>43901578484.40118</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>43939050708.56857</v>
+        <v>43939050272.07186</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43981896436.82764</v>
+        <v>43981896124.05964</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>44029244265.40927</v>
+        <v>44029243243.07729</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>44079664009.32339</v>
+        <v>44079663747.90271</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>44125313046.30697</v>
+        <v>44125312319.82477</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>44147695473.47038</v>
+        <v>44147697437.26474</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>44126068945.64772</v>
+        <v>44126070280.26192</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>44129052836.92637</v>
+        <v>44129053070.62408</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>44072392531.87798</v>
+        <v>44072393479.21683</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>43963066398.10667</v>
+        <v>43963065982.08857</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43813332186.61668</v>
+        <v>43813330971.46391</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43637204936.91028</v>
+        <v>43637204135.78456</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43448042404.3896</v>
+        <v>43448041581.95818</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>43257244575.64023</v>
+        <v>43257244758.38572</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>43073755395.8889</v>
+        <v>43073756125.54942</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>42904079024.22314</v>
+        <v>42904078290.56796</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>42752542122.01902</v>
+        <v>42752542716.25021</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>42621688893.77557</v>
+        <v>42621689915.83861</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>42512655695.48553</v>
+        <v>42512657007.00323</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>42425542108.17752</v>
+        <v>42425543100.20642</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>42359700284.71114</v>
+        <v>42359701133.39742</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>42313984424.3711</v>
+        <v>42313984770.00617</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>42286930749.05841</v>
+        <v>42286930730.26936</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>42276900925.53999</v>
+        <v>42276901988.26087</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>42164847891.48279</v>
+        <v>42164848662.97449</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>42066961333.41042</v>
+        <v>42066962081.42067</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>41981336549.30846</v>
+        <v>41981338024.66522</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>41906180749.18831</v>
+        <v>41906182742.95988</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>41839832635.60477</v>
+        <v>41839833311.3134</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>41780762963.76946</v>
+        <v>41780762340.65444</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>41727582638.95121</v>
+        <v>41727582899.51125</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>41679030979.69514</v>
+        <v>41679032036.55802</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>41633978650.94455</v>
+        <v>41633978731.84154</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>41591404623.44422</v>
+        <v>41591405807.07518</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>41550392337.57221</v>
+        <v>41550393596.45346</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>41510121743.52042</v>
+        <v>41510122659.50333</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>41469858159.58119</v>
+        <v>41469859731.85689</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>41428944730.22595</v>
+        <v>41428946477.51499</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>41386789689.66832</v>
+        <v>41386791284.45071</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>41342872375.25301</v>
+        <v>41342874336.25703</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>41296719875.40839</v>
+        <v>41296721484.26659</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>41247907286.16995</v>
+        <v>41247908011.06227</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>41196054595.62032</v>
+        <v>41196055357.5799</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>41140826648.43529</v>
+        <v>41140827708.54008</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>41081916520.82662</v>
+        <v>41081917750.65314</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>41019051354.01721</v>
+        <v>41019051251.33987</v>
       </c>
     </row>
     <row r="452">
@@ -4043,7 +4043,7 @@
         <v>450</v>
       </c>
       <c r="B452" t="n">
-        <v>247174817.7968289</v>
+        <v>247174817.809567</v>
       </c>
     </row>
   </sheetData>

--- a/Data/model_outputs_scenario_4/total_energy_use.xlsx
+++ b/Data/model_outputs_scenario_4/total_energy_use.xlsx
@@ -1099,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>2519515456.602136</v>
+        <v>2519515456.602137</v>
       </c>
     </row>
     <row r="85">
@@ -1155,7 +1155,7 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>2578175422.52302</v>
+        <v>2578175422.523019</v>
       </c>
     </row>
     <row r="92">
@@ -1179,7 +1179,7 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>2605140860.417713</v>
+        <v>2605140860.417712</v>
       </c>
     </row>
     <row r="95">
@@ -1243,7 +1243,7 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>2682867561.085015</v>
+        <v>2682867561.085016</v>
       </c>
     </row>
     <row r="103">
@@ -1251,7 +1251,7 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>2693210949.473497</v>
+        <v>2693210949.473496</v>
       </c>
     </row>
     <row r="104">
@@ -1283,7 +1283,7 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>2736068690.23462</v>
+        <v>2736068690.234619</v>
       </c>
     </row>
     <row r="108">
@@ -1491,7 +1491,7 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>3081390739.206878</v>
+        <v>3081390739.206879</v>
       </c>
     </row>
     <row r="134">
@@ -1555,7 +1555,7 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>3215298817.577447</v>
+        <v>3215298817.577448</v>
       </c>
     </row>
     <row r="142">
@@ -1739,7 +1739,7 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>3693894282.068278</v>
+        <v>3693894282.068277</v>
       </c>
     </row>
     <row r="165">
@@ -1755,7 +1755,7 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>3743119363.711272</v>
+        <v>3743119363.711273</v>
       </c>
     </row>
     <row r="167">
@@ -1787,7 +1787,7 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>3845720261.252351</v>
+        <v>3845720261.252352</v>
       </c>
     </row>
     <row r="171">
@@ -1843,7 +1843,7 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4039400533.495361</v>
+        <v>4039400533.49536</v>
       </c>
     </row>
     <row r="178">
@@ -1867,7 +1867,7 @@
         <v>178</v>
       </c>
       <c r="B180" t="n">
-        <v>4128276109.422611</v>
+        <v>4128276109.422612</v>
       </c>
     </row>
     <row r="181">
@@ -1891,7 +1891,7 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>4220879997.660602</v>
+        <v>4220879997.660603</v>
       </c>
     </row>
     <row r="184">
@@ -1947,7 +1947,7 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>4452383446.901434</v>
+        <v>4452383446.901435</v>
       </c>
     </row>
     <row r="191">
@@ -2043,7 +2043,7 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>4904910425.514892</v>
+        <v>4904910425.514893</v>
       </c>
     </row>
     <row r="203">
@@ -2051,7 +2051,7 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>4946105363.485181</v>
+        <v>4946105363.485182</v>
       </c>
     </row>
     <row r="204">
@@ -2059,7 +2059,7 @@
         <v>202</v>
       </c>
       <c r="B204" t="n">
-        <v>4987871031.266984</v>
+        <v>4987871031.266985</v>
       </c>
     </row>
     <row r="205">
@@ -2067,7 +2067,7 @@
         <v>203</v>
       </c>
       <c r="B205" t="n">
-        <v>5030217847.186921</v>
+        <v>5030217847.186922</v>
       </c>
     </row>
     <row r="206">
@@ -2107,7 +2107,7 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
-        <v>5250957804.676111</v>
+        <v>5250957804.67611</v>
       </c>
     </row>
     <row r="211">
@@ -2115,7 +2115,7 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>5296967493.115502</v>
+        <v>5296967493.115503</v>
       </c>
     </row>
     <row r="212">
@@ -2147,7 +2147,7 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
-        <v>5487530353.734644</v>
+        <v>5487530353.734643</v>
       </c>
     </row>
     <row r="216">
@@ -2155,7 +2155,7 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>5536849654.538823</v>
+        <v>5536849654.538822</v>
       </c>
     </row>
     <row r="217">
@@ -2227,7 +2227,7 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>6013137729.137163</v>
+        <v>6013137729.137162</v>
       </c>
     </row>
     <row r="226">
@@ -2235,7 +2235,7 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>6069864712.113747</v>
+        <v>6069864712.113746</v>
       </c>
     </row>
     <row r="227">
@@ -2259,7 +2259,7 @@
         <v>227</v>
       </c>
       <c r="B229" t="n">
-        <v>6244930060.184353</v>
+        <v>6244930060.184352</v>
       </c>
     </row>
     <row r="230">
@@ -2275,7 +2275,7 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
-        <v>6365833369.551116</v>
+        <v>6365833369.551115</v>
       </c>
     </row>
     <row r="232">
@@ -2331,7 +2331,7 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>6817164677.950049</v>
+        <v>6817164677.95005</v>
       </c>
     </row>
     <row r="239">
@@ -2355,7 +2355,7 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>7024895264.294232</v>
+        <v>7024895264.29423</v>
       </c>
     </row>
     <row r="242">
@@ -2419,7 +2419,7 @@
         <v>247</v>
       </c>
       <c r="B249" t="n">
-        <v>7625154279.410969</v>
+        <v>7625154279.410968</v>
       </c>
     </row>
     <row r="250">
@@ -2483,7 +2483,7 @@
         <v>255</v>
       </c>
       <c r="B257" t="n">
-        <v>8300466283.140719</v>
+        <v>8300466283.14072</v>
       </c>
     </row>
     <row r="258">
@@ -2531,7 +2531,7 @@
         <v>261</v>
       </c>
       <c r="B263" t="n">
-        <v>8862893132.1094</v>
+        <v>8862893132.109402</v>
       </c>
     </row>
     <row r="264">
@@ -2603,7 +2603,7 @@
         <v>270</v>
       </c>
       <c r="B272" t="n">
-        <v>9809779200.296534</v>
+        <v>9809779200.296532</v>
       </c>
     </row>
     <row r="273">
@@ -2731,7 +2731,7 @@
         <v>286</v>
       </c>
       <c r="B288" t="n">
-        <v>11865104249.70735</v>
+        <v>11865104522.70735</v>
       </c>
     </row>
     <row r="289">
@@ -2739,7 +2739,7 @@
         <v>287</v>
       </c>
       <c r="B289" t="n">
-        <v>12012154395.69483</v>
+        <v>12012154668.69483</v>
       </c>
     </row>
     <row r="290">
@@ -2747,7 +2747,7 @@
         <v>288</v>
       </c>
       <c r="B290" t="n">
-        <v>12161656042.49296</v>
+        <v>12161655930.70594</v>
       </c>
     </row>
     <row r="291">
@@ -2755,7 +2755,7 @@
         <v>289</v>
       </c>
       <c r="B291" t="n">
-        <v>12313648766.30159</v>
+        <v>12313648948.79927</v>
       </c>
     </row>
     <row r="292">
@@ -2763,7 +2763,7 @@
         <v>290</v>
       </c>
       <c r="B292" t="n">
-        <v>12468188086.41227</v>
+        <v>12468187910.3251</v>
       </c>
     </row>
     <row r="293">
@@ -2771,7 +2771,7 @@
         <v>291</v>
       </c>
       <c r="B293" t="n">
-        <v>12625316781.34746</v>
+        <v>12625316951.16579</v>
       </c>
     </row>
     <row r="294">
@@ -2779,7 +2779,7 @@
         <v>292</v>
       </c>
       <c r="B294" t="n">
-        <v>12785087601.16103</v>
+        <v>12785087656.46885</v>
       </c>
     </row>
     <row r="295">
@@ -2787,7 +2787,7 @@
         <v>293</v>
       </c>
       <c r="B295" t="n">
-        <v>12947550264.60285</v>
+        <v>12947550422.31231</v>
       </c>
     </row>
     <row r="296">
@@ -2795,7 +2795,7 @@
         <v>294</v>
       </c>
       <c r="B296" t="n">
-        <v>13112758206.17079</v>
+        <v>13112758054.30007</v>
       </c>
     </row>
     <row r="297">
@@ -2803,7 +2803,7 @@
         <v>295</v>
       </c>
       <c r="B297" t="n">
-        <v>13280762999.19874</v>
+        <v>13280763145.375</v>
       </c>
     </row>
     <row r="298">
@@ -2811,7 +2811,7 @@
         <v>296</v>
       </c>
       <c r="B298" t="n">
-        <v>13451616077.75793</v>
+        <v>13451616156.13176</v>
       </c>
     </row>
     <row r="299">
@@ -2819,7 +2819,7 @@
         <v>297</v>
       </c>
       <c r="B299" t="n">
-        <v>13625375386.30542</v>
+        <v>13625374866.088</v>
       </c>
     </row>
     <row r="300">
@@ -2827,7 +2827,7 @@
         <v>298</v>
       </c>
       <c r="B300" t="n">
-        <v>13802094195.48817</v>
+        <v>13802094415.98668</v>
       </c>
     </row>
     <row r="301">
@@ -2835,7 +2835,7 @@
         <v>299</v>
       </c>
       <c r="B301" t="n">
-        <v>13981825799.84312</v>
+        <v>13981825909.37159</v>
       </c>
     </row>
     <row r="302">
@@ -2843,7 +2843,7 @@
         <v>300</v>
       </c>
       <c r="B302" t="n">
-        <v>14164634490.3228</v>
+        <v>14164634098.24498</v>
       </c>
     </row>
     <row r="303">
@@ -2851,7 +2851,7 @@
         <v>301</v>
       </c>
       <c r="B303" t="n">
-        <v>14316866834.73485</v>
+        <v>14316867523.12489</v>
       </c>
     </row>
     <row r="304">
@@ -2859,7 +2859,7 @@
         <v>302</v>
       </c>
       <c r="B304" t="n">
-        <v>14471762996.91301</v>
+        <v>14471762559.12257</v>
       </c>
     </row>
     <row r="305">
@@ -2867,7 +2867,7 @@
         <v>303</v>
       </c>
       <c r="B305" t="n">
-        <v>14629354974.05636</v>
+        <v>14629355362.61891</v>
       </c>
     </row>
     <row r="306">
@@ -2875,7 +2875,7 @@
         <v>304</v>
       </c>
       <c r="B306" t="n">
-        <v>14789703003.4039</v>
+        <v>14789702965.79592</v>
       </c>
     </row>
     <row r="307">
@@ -2883,7 +2883,7 @@
         <v>305</v>
       </c>
       <c r="B307" t="n">
-        <v>14952855763.95685</v>
+        <v>14952855805.47196</v>
       </c>
     </row>
     <row r="308">
@@ -2891,7 +2891,7 @@
         <v>306</v>
       </c>
       <c r="B308" t="n">
-        <v>15118864279.25887</v>
+        <v>15118864416.84681</v>
       </c>
     </row>
     <row r="309">
@@ -2899,7 +2899,7 @@
         <v>307</v>
       </c>
       <c r="B309" t="n">
-        <v>15287785959.52738</v>
+        <v>15287786542.71266</v>
       </c>
     </row>
     <row r="310">
@@ -2907,7 +2907,7 @@
         <v>308</v>
       </c>
       <c r="B310" t="n">
-        <v>15459667882.56092</v>
+        <v>15459667450.78737</v>
       </c>
     </row>
     <row r="311">
@@ -2915,7 +2915,7 @@
         <v>309</v>
       </c>
       <c r="B311" t="n">
-        <v>15634566140.49358</v>
+        <v>15634566206.52294</v>
       </c>
     </row>
     <row r="312">
@@ -2923,7 +2923,7 @@
         <v>310</v>
       </c>
       <c r="B312" t="n">
-        <v>15812537420.17578</v>
+        <v>15812537486.86237</v>
       </c>
     </row>
     <row r="313">
@@ -2931,7 +2931,7 @@
         <v>311</v>
       </c>
       <c r="B313" t="n">
-        <v>15993633388.61675</v>
+        <v>15993633481.72819</v>
       </c>
     </row>
     <row r="314">
@@ -2939,7 +2939,7 @@
         <v>312</v>
       </c>
       <c r="B314" t="n">
-        <v>16177911085.05168</v>
+        <v>16177911786.59855</v>
       </c>
     </row>
     <row r="315">
@@ -2947,7 +2947,7 @@
         <v>313</v>
       </c>
       <c r="B315" t="n">
-        <v>16365424492.21366</v>
+        <v>16365424642.96634</v>
       </c>
     </row>
     <row r="316">
@@ -2955,7 +2955,7 @@
         <v>314</v>
       </c>
       <c r="B316" t="n">
-        <v>16556227358.50419</v>
+        <v>16556226638.06167</v>
       </c>
     </row>
     <row r="317">
@@ -2963,7 +2963,7 @@
         <v>315</v>
       </c>
       <c r="B317" t="n">
-        <v>16750383826.8418</v>
+        <v>16750382841.1603</v>
       </c>
     </row>
     <row r="318">
@@ -2971,7 +2971,7 @@
         <v>316</v>
       </c>
       <c r="B318" t="n">
-        <v>16947939883.20425</v>
+        <v>16947941279.59607</v>
       </c>
     </row>
     <row r="319">
@@ -2979,7 +2979,7 @@
         <v>317</v>
       </c>
       <c r="B319" t="n">
-        <v>17148960745.80925</v>
+        <v>17148960700.36716</v>
       </c>
     </row>
     <row r="320">
@@ -2987,7 +2987,7 @@
         <v>318</v>
       </c>
       <c r="B320" t="n">
-        <v>17353500369.39544</v>
+        <v>17353500490.82096</v>
       </c>
     </row>
     <row r="321">
@@ -2995,7 +2995,7 @@
         <v>319</v>
       </c>
       <c r="B321" t="n">
-        <v>17561612004.64895</v>
+        <v>17561611857.47416</v>
       </c>
     </row>
     <row r="322">
@@ -3003,7 +3003,7 @@
         <v>320</v>
       </c>
       <c r="B322" t="n">
-        <v>17773358325.29666</v>
+        <v>17773358882.10667</v>
       </c>
     </row>
     <row r="323">
@@ -3011,7 +3011,7 @@
         <v>321</v>
       </c>
       <c r="B323" t="n">
-        <v>17988794209.84412</v>
+        <v>17988793849.86999</v>
       </c>
     </row>
     <row r="324">
@@ -3019,7 +3019,7 @@
         <v>322</v>
       </c>
       <c r="B324" t="n">
-        <v>18207978464.69877</v>
+        <v>18207978957.77289</v>
       </c>
     </row>
     <row r="325">
@@ -3027,7 +3027,7 @@
         <v>323</v>
       </c>
       <c r="B325" t="n">
-        <v>18430967285.0562</v>
+        <v>18430966804.1392</v>
       </c>
     </row>
     <row r="326">
@@ -3035,7 +3035,7 @@
         <v>324</v>
       </c>
       <c r="B326" t="n">
-        <v>18657815370.38221</v>
+        <v>18657814795.27796</v>
       </c>
     </row>
     <row r="327">
@@ -3043,7 +3043,7 @@
         <v>325</v>
       </c>
       <c r="B327" t="n">
-        <v>18888583966.1245</v>
+        <v>18888583441.14819</v>
       </c>
     </row>
     <row r="328">
@@ -3051,7 +3051,7 @@
         <v>326</v>
       </c>
       <c r="B328" t="n">
-        <v>19123325670.5308</v>
+        <v>19123325406.10436</v>
       </c>
     </row>
     <row r="329">
@@ -3059,7 +3059,7 @@
         <v>327</v>
       </c>
       <c r="B329" t="n">
-        <v>19362098634.33613</v>
+        <v>19362099238.30976</v>
       </c>
     </row>
     <row r="330">
@@ -3067,7 +3067,7 @@
         <v>328</v>
       </c>
       <c r="B330" t="n">
-        <v>19604959091.83744</v>
+        <v>19604959167.4617</v>
       </c>
     </row>
     <row r="331">
@@ -3075,7 +3075,7 @@
         <v>329</v>
       </c>
       <c r="B331" t="n">
-        <v>19851960501.45461</v>
+        <v>19851960063.0766</v>
       </c>
     </row>
     <row r="332">
@@ -3083,7 +3083,7 @@
         <v>330</v>
       </c>
       <c r="B332" t="n">
-        <v>20103159452.002</v>
+        <v>20103158888.917</v>
       </c>
     </row>
     <row r="333">
@@ -3091,7 +3091,7 @@
         <v>331</v>
       </c>
       <c r="B333" t="n">
-        <v>20358607836.72423</v>
+        <v>20358608741.49525</v>
       </c>
     </row>
     <row r="334">
@@ -3099,7 +3099,7 @@
         <v>332</v>
       </c>
       <c r="B334" t="n">
-        <v>20618360239.49514</v>
+        <v>20618360342.00364</v>
       </c>
     </row>
     <row r="335">
@@ -3107,7 +3107,7 @@
         <v>333</v>
       </c>
       <c r="B335" t="n">
-        <v>20882468581.81121</v>
+        <v>20882468601.19625</v>
       </c>
     </row>
     <row r="336">
@@ -3115,7 +3115,7 @@
         <v>334</v>
       </c>
       <c r="B336" t="n">
-        <v>21150984402.83554</v>
+        <v>21150985428.17756</v>
       </c>
     </row>
     <row r="337">
@@ -3123,7 +3123,7 @@
         <v>335</v>
       </c>
       <c r="B337" t="n">
-        <v>21423958963.61213</v>
+        <v>21423958708.43883</v>
       </c>
     </row>
     <row r="338">
@@ -3131,7 +3131,7 @@
         <v>336</v>
       </c>
       <c r="B338" t="n">
-        <v>21701438408.41095</v>
+        <v>21701437898.33653</v>
       </c>
     </row>
     <row r="339">
@@ -3139,7 +3139,7 @@
         <v>337</v>
       </c>
       <c r="B339" t="n">
-        <v>21983473679.30135</v>
+        <v>21983474048.08842</v>
       </c>
     </row>
     <row r="340">
@@ -3147,7 +3147,7 @@
         <v>338</v>
       </c>
       <c r="B340" t="n">
-        <v>22270110743.50013</v>
+        <v>22270111573.57181</v>
       </c>
     </row>
     <row r="341">
@@ -3155,7 +3155,7 @@
         <v>339</v>
       </c>
       <c r="B341" t="n">
-        <v>22561398025.67408</v>
+        <v>22561397535.42572</v>
       </c>
     </row>
     <row r="342">
@@ -3163,7 +3163,7 @@
         <v>340</v>
       </c>
       <c r="B342" t="n">
-        <v>22857370152.31507</v>
+        <v>22857370410.78078</v>
       </c>
     </row>
     <row r="343">
@@ -3171,7 +3171,7 @@
         <v>341</v>
       </c>
       <c r="B343" t="n">
-        <v>23158076149.51661</v>
+        <v>23158076069.63019</v>
       </c>
     </row>
     <row r="344">
@@ -3179,7 +3179,7 @@
         <v>342</v>
       </c>
       <c r="B344" t="n">
-        <v>23463557253.17918</v>
+        <v>23463557564.06349</v>
       </c>
     </row>
     <row r="345">
@@ -3187,7 +3187,7 @@
         <v>343</v>
       </c>
       <c r="B345" t="n">
-        <v>23773847682.0096</v>
+        <v>23773847623.53202</v>
       </c>
     </row>
     <row r="346">
@@ -3195,7 +3195,7 @@
         <v>344</v>
       </c>
       <c r="B346" t="n">
-        <v>24088988138.24259</v>
+        <v>24088988429.14581</v>
       </c>
     </row>
     <row r="347">
@@ -3203,7 +3203,7 @@
         <v>345</v>
       </c>
       <c r="B347" t="n">
-        <v>24409009344.14021</v>
+        <v>24409010214.10817</v>
       </c>
     </row>
     <row r="348">
@@ -3211,7 +3211,7 @@
         <v>346</v>
       </c>
       <c r="B348" t="n">
-        <v>24733944795.8876</v>
+        <v>24733944769.04525</v>
       </c>
     </row>
     <row r="349">
@@ -3219,7 +3219,7 @@
         <v>347</v>
       </c>
       <c r="B349" t="n">
-        <v>25063823138.26749</v>
+        <v>25063822758.25725</v>
       </c>
     </row>
     <row r="350">
@@ -3227,7 +3227,7 @@
         <v>348</v>
       </c>
       <c r="B350" t="n">
-        <v>25398678300.99375</v>
+        <v>25398677569.92591</v>
       </c>
     </row>
     <row r="351">
@@ -3235,7 +3235,7 @@
         <v>349</v>
       </c>
       <c r="B351" t="n">
-        <v>25738524507.93797</v>
+        <v>25738524076.40778</v>
       </c>
     </row>
     <row r="352">
@@ -3243,7 +3243,7 @@
         <v>350</v>
       </c>
       <c r="B352" t="n">
-        <v>26083393143.6345</v>
+        <v>26083393435.56983</v>
       </c>
     </row>
     <row r="353">
@@ -3251,7 +3251,7 @@
         <v>351</v>
       </c>
       <c r="B353" t="n">
-        <v>26433299378.39998</v>
+        <v>26433299139.1973</v>
       </c>
     </row>
     <row r="354">
@@ -3259,7 +3259,7 @@
         <v>352</v>
       </c>
       <c r="B354" t="n">
-        <v>26788264086.24459</v>
+        <v>26788264647.35937</v>
       </c>
     </row>
     <row r="355">
@@ -3267,7 +3267,7 @@
         <v>353</v>
       </c>
       <c r="B355" t="n">
-        <v>27148295813.27644</v>
+        <v>27148295382.48439</v>
       </c>
     </row>
     <row r="356">
@@ -3275,7 +3275,7 @@
         <v>354</v>
       </c>
       <c r="B356" t="n">
-        <v>27513408476.40976</v>
+        <v>27513408238.07479</v>
       </c>
     </row>
     <row r="357">
@@ -3283,7 +3283,7 @@
         <v>355</v>
       </c>
       <c r="B357" t="n">
-        <v>27883610198.84897</v>
+        <v>27883609782.34206</v>
       </c>
     </row>
     <row r="358">
@@ -3291,7 +3291,7 @@
         <v>356</v>
       </c>
       <c r="B358" t="n">
-        <v>28252237880.88615</v>
+        <v>28252237910.98327</v>
       </c>
     </row>
     <row r="359">
@@ -3299,7 +3299,7 @@
         <v>357</v>
       </c>
       <c r="B359" t="n">
-        <v>28625873554.81377</v>
+        <v>28625873614.96207</v>
       </c>
     </row>
     <row r="360">
@@ -3307,7 +3307,7 @@
         <v>358</v>
       </c>
       <c r="B360" t="n">
-        <v>29004513053.27608</v>
+        <v>29004513299.30345</v>
       </c>
     </row>
     <row r="361">
@@ -3315,7 +3315,7 @@
         <v>359</v>
       </c>
       <c r="B361" t="n">
-        <v>29388149257.67736</v>
+        <v>29388148871.72078</v>
       </c>
     </row>
     <row r="362">
@@ -3323,7 +3323,7 @@
         <v>360</v>
       </c>
       <c r="B362" t="n">
-        <v>29776773949.10216</v>
+        <v>29776775229.90729</v>
       </c>
     </row>
     <row r="363">
@@ -3331,7 +3331,7 @@
         <v>361</v>
       </c>
       <c r="B363" t="n">
-        <v>30170377258.49461</v>
+        <v>30170377071.84134</v>
       </c>
     </row>
     <row r="364">
@@ -3339,7 +3339,7 @@
         <v>362</v>
       </c>
       <c r="B364" t="n">
-        <v>30568936652.28563</v>
+        <v>30568937235.1408</v>
       </c>
     </row>
     <row r="365">
@@ -3347,7 +3347,7 @@
         <v>363</v>
       </c>
       <c r="B365" t="n">
-        <v>30972437024.02977</v>
+        <v>30972436628.40988</v>
       </c>
     </row>
     <row r="366">
@@ -3355,7 +3355,7 @@
         <v>364</v>
       </c>
       <c r="B366" t="n">
-        <v>31380852281.1351</v>
+        <v>31380852355.72783</v>
       </c>
     </row>
     <row r="367">
@@ -3363,7 +3363,7 @@
         <v>365</v>
       </c>
       <c r="B367" t="n">
-        <v>31794154907.82723</v>
+        <v>31794155065.87391</v>
       </c>
     </row>
     <row r="368">
@@ -3371,7 +3371,7 @@
         <v>366</v>
       </c>
       <c r="B368" t="n">
-        <v>32212315426.98137</v>
+        <v>32212314810.02567</v>
       </c>
     </row>
     <row r="369">
@@ -3379,7 +3379,7 @@
         <v>367</v>
       </c>
       <c r="B369" t="n">
-        <v>32635294574.91891</v>
+        <v>32635294349.2326</v>
       </c>
     </row>
     <row r="370">
@@ -3387,7 +3387,7 @@
         <v>368</v>
       </c>
       <c r="B370" t="n">
-        <v>33063053589.22939</v>
+        <v>33063053235.42485</v>
       </c>
     </row>
     <row r="371">
@@ -3395,7 +3395,7 @@
         <v>369</v>
       </c>
       <c r="B371" t="n">
-        <v>33495551457.53838</v>
+        <v>33495550808.16143</v>
       </c>
     </row>
     <row r="372">
@@ -3403,7 +3403,7 @@
         <v>370</v>
       </c>
       <c r="B372" t="n">
-        <v>33932738900.83964</v>
+        <v>33932739132.88985</v>
       </c>
     </row>
     <row r="373">
@@ -3411,7 +3411,7 @@
         <v>371</v>
       </c>
       <c r="B373" t="n">
-        <v>34311276362.04671</v>
+        <v>34311276026.44242</v>
       </c>
     </row>
     <row r="374">
@@ -3419,7 +3419,7 @@
         <v>372</v>
       </c>
       <c r="B374" t="n">
-        <v>34693710297.17608</v>
+        <v>34693709668.39231</v>
       </c>
     </row>
     <row r="375">
@@ -3427,7 +3427,7 @@
         <v>373</v>
       </c>
       <c r="B375" t="n">
-        <v>35079985749.04618</v>
+        <v>35079985701.50362</v>
       </c>
     </row>
     <row r="376">
@@ -3435,7 +3435,7 @@
         <v>374</v>
       </c>
       <c r="B376" t="n">
-        <v>35470041298.78693</v>
+        <v>35470041295.40553</v>
       </c>
     </row>
     <row r="377">
@@ -3443,7 +3443,7 @@
         <v>375</v>
       </c>
       <c r="B377" t="n">
-        <v>35863821109.82446</v>
+        <v>35863821331.25191</v>
       </c>
     </row>
     <row r="378">
@@ -3451,7 +3451,7 @@
         <v>376</v>
       </c>
       <c r="B378" t="n">
-        <v>36261253649.77431</v>
+        <v>36261252938.55576</v>
       </c>
     </row>
     <row r="379">
@@ -3459,7 +3459,7 @@
         <v>377</v>
       </c>
       <c r="B379" t="n">
-        <v>36661834042.64733</v>
+        <v>36661833753.26307</v>
       </c>
     </row>
     <row r="380">
@@ -3467,7 +3467,7 @@
         <v>378</v>
       </c>
       <c r="B380" t="n">
-        <v>37060656306.0829</v>
+        <v>37060655716.92221</v>
       </c>
     </row>
     <row r="381">
@@ -3475,7 +3475,7 @@
         <v>379</v>
       </c>
       <c r="B381" t="n">
-        <v>37445280497.73796</v>
+        <v>37445280378.25433</v>
       </c>
     </row>
     <row r="382">
@@ -3483,7 +3483,7 @@
         <v>380</v>
       </c>
       <c r="B382" t="n">
-        <v>37801219870.78228</v>
+        <v>37801220668.71871</v>
       </c>
     </row>
     <row r="383">
@@ -3491,7 +3491,7 @@
         <v>381</v>
       </c>
       <c r="B383" t="n">
-        <v>38281362562.80878</v>
+        <v>38281362665.31059</v>
       </c>
     </row>
     <row r="384">
@@ -3499,7 +3499,7 @@
         <v>382</v>
       </c>
       <c r="B384" t="n">
-        <v>38722098688.49714</v>
+        <v>38722099259.89568</v>
       </c>
     </row>
     <row r="385">
@@ -3507,7 +3507,7 @@
         <v>383</v>
       </c>
       <c r="B385" t="n">
-        <v>39127597173.39725</v>
+        <v>39127597761.99667</v>
       </c>
     </row>
     <row r="386">
@@ -3515,7 +3515,7 @@
         <v>384</v>
       </c>
       <c r="B386" t="n">
-        <v>39505963096.21147</v>
+        <v>39505962080.9314</v>
       </c>
     </row>
     <row r="387">
@@ -3523,7 +3523,7 @@
         <v>385</v>
       </c>
       <c r="B387" t="n">
-        <v>39866839138.133</v>
+        <v>39866837895.33904</v>
       </c>
     </row>
     <row r="388">
@@ -3531,7 +3531,7 @@
         <v>386</v>
       </c>
       <c r="B388" t="n">
-        <v>40219671903.13824</v>
+        <v>40219671920.01495</v>
       </c>
     </row>
     <row r="389">
@@ -3539,7 +3539,7 @@
         <v>387</v>
       </c>
       <c r="B389" t="n">
-        <v>40572752763.92094</v>
+        <v>40572752415.87049</v>
       </c>
     </row>
     <row r="390">
@@ -3547,7 +3547,7 @@
         <v>388</v>
       </c>
       <c r="B390" t="n">
-        <v>40932781816.12041</v>
+        <v>40932781498.65025</v>
       </c>
     </row>
     <row r="391">
@@ -3555,7 +3555,7 @@
         <v>389</v>
       </c>
       <c r="B391" t="n">
-        <v>41304816512.0144</v>
+        <v>41304815408.69931</v>
       </c>
     </row>
     <row r="392">
@@ -3563,7 +3563,7 @@
         <v>390</v>
       </c>
       <c r="B392" t="n">
-        <v>41692400761.06241</v>
+        <v>41692400505.59187</v>
       </c>
     </row>
     <row r="393">
@@ -3571,7 +3571,7 @@
         <v>391</v>
       </c>
       <c r="B393" t="n">
-        <v>41827716289.05635</v>
+        <v>41827716478.24954</v>
       </c>
     </row>
     <row r="394">
@@ -3579,7 +3579,7 @@
         <v>392</v>
       </c>
       <c r="B394" t="n">
-        <v>41981830781.99329</v>
+        <v>41981830557.56649</v>
       </c>
     </row>
     <row r="395">
@@ -3587,7 +3587,7 @@
         <v>393</v>
       </c>
       <c r="B395" t="n">
-        <v>42154948017.34492</v>
+        <v>42154946512.18845</v>
       </c>
     </row>
     <row r="396">
@@ -3595,7 +3595,7 @@
         <v>394</v>
       </c>
       <c r="B396" t="n">
-        <v>42346676271.83942</v>
+        <v>42346675327.54408</v>
       </c>
     </row>
     <row r="397">
@@ -3603,7 +3603,7 @@
         <v>395</v>
       </c>
       <c r="B397" t="n">
-        <v>42556235582.45915</v>
+        <v>42556235602.9445</v>
       </c>
     </row>
     <row r="398">
@@ -3611,7 +3611,7 @@
         <v>396</v>
       </c>
       <c r="B398" t="n">
-        <v>42782590141.06301</v>
+        <v>42782590178.53236</v>
       </c>
     </row>
     <row r="399">
@@ -3619,7 +3619,7 @@
         <v>397</v>
       </c>
       <c r="B399" t="n">
-        <v>43024550174.08565</v>
+        <v>43024549739.67241</v>
       </c>
     </row>
     <row r="400">
@@ -3627,7 +3627,7 @@
         <v>398</v>
       </c>
       <c r="B400" t="n">
-        <v>43280857881.80442</v>
+        <v>43280858146.8136</v>
       </c>
     </row>
     <row r="401">
@@ -3635,7 +3635,7 @@
         <v>399</v>
       </c>
       <c r="B401" t="n">
-        <v>43550247086.53371</v>
+        <v>43550246460.28525</v>
       </c>
     </row>
     <row r="402">
@@ -3643,7 +3643,7 @@
         <v>400</v>
       </c>
       <c r="B402" t="n">
-        <v>43831476273.00362</v>
+        <v>43831475552.62815</v>
       </c>
     </row>
     <row r="403">
@@ -3651,7 +3651,7 @@
         <v>401</v>
       </c>
       <c r="B403" t="n">
-        <v>43846683116.73582</v>
+        <v>43846683675.16858</v>
       </c>
     </row>
     <row r="404">
@@ -3659,7 +3659,7 @@
         <v>402</v>
       </c>
       <c r="B404" t="n">
-        <v>43870437130.15469</v>
+        <v>43870436338.80046</v>
       </c>
     </row>
     <row r="405">
@@ -3667,7 +3667,7 @@
         <v>403</v>
       </c>
       <c r="B405" t="n">
-        <v>43901578484.40118</v>
+        <v>43901578586.65273</v>
       </c>
     </row>
     <row r="406">
@@ -3675,7 +3675,7 @@
         <v>404</v>
       </c>
       <c r="B406" t="n">
-        <v>43939050272.07186</v>
+        <v>43939050278.68914</v>
       </c>
     </row>
     <row r="407">
@@ -3683,7 +3683,7 @@
         <v>405</v>
       </c>
       <c r="B407" t="n">
-        <v>43981896124.05964</v>
+        <v>43981895402.20716</v>
       </c>
     </row>
     <row r="408">
@@ -3691,7 +3691,7 @@
         <v>406</v>
       </c>
       <c r="B408" t="n">
-        <v>44029243243.07729</v>
+        <v>44029242496.33357</v>
       </c>
     </row>
     <row r="409">
@@ -3699,7 +3699,7 @@
         <v>407</v>
       </c>
       <c r="B409" t="n">
-        <v>44079663747.90271</v>
+        <v>44079663632.48505</v>
       </c>
     </row>
     <row r="410">
@@ -3707,7 +3707,7 @@
         <v>408</v>
       </c>
       <c r="B410" t="n">
-        <v>44125312319.82477</v>
+        <v>44125311082.32531</v>
       </c>
     </row>
     <row r="411">
@@ -3715,7 +3715,7 @@
         <v>409</v>
       </c>
       <c r="B411" t="n">
-        <v>44147697437.26474</v>
+        <v>44147696284.32201</v>
       </c>
     </row>
     <row r="412">
@@ -3723,7 +3723,7 @@
         <v>410</v>
       </c>
       <c r="B412" t="n">
-        <v>44126070280.26192</v>
+        <v>44126070097.36277</v>
       </c>
     </row>
     <row r="413">
@@ -3731,7 +3731,7 @@
         <v>411</v>
       </c>
       <c r="B413" t="n">
-        <v>44129053070.62408</v>
+        <v>44129052386.26141</v>
       </c>
     </row>
     <row r="414">
@@ -3739,7 +3739,7 @@
         <v>412</v>
       </c>
       <c r="B414" t="n">
-        <v>44072393479.21683</v>
+        <v>44072392513.54446</v>
       </c>
     </row>
     <row r="415">
@@ -3747,7 +3747,7 @@
         <v>413</v>
       </c>
       <c r="B415" t="n">
-        <v>43963065982.08857</v>
+        <v>43963065448.05049</v>
       </c>
     </row>
     <row r="416">
@@ -3755,7 +3755,7 @@
         <v>414</v>
       </c>
       <c r="B416" t="n">
-        <v>43813330971.46391</v>
+        <v>43813331790.40602</v>
       </c>
     </row>
     <row r="417">
@@ -3763,7 +3763,7 @@
         <v>415</v>
       </c>
       <c r="B417" t="n">
-        <v>43637204135.78456</v>
+        <v>43637204249.01762</v>
       </c>
     </row>
     <row r="418">
@@ -3771,7 +3771,7 @@
         <v>416</v>
       </c>
       <c r="B418" t="n">
-        <v>43448041581.95818</v>
+        <v>43448042124.13747</v>
       </c>
     </row>
     <row r="419">
@@ -3779,7 +3779,7 @@
         <v>417</v>
       </c>
       <c r="B419" t="n">
-        <v>43257244758.38572</v>
+        <v>43257244590.89294</v>
       </c>
     </row>
     <row r="420">
@@ -3787,7 +3787,7 @@
         <v>418</v>
       </c>
       <c r="B420" t="n">
-        <v>43073756125.54942</v>
+        <v>43073755089.08987</v>
       </c>
     </row>
     <row r="421">
@@ -3795,7 +3795,7 @@
         <v>419</v>
       </c>
       <c r="B421" t="n">
-        <v>42904078290.56796</v>
+        <v>42904078131.68685</v>
       </c>
     </row>
     <row r="422">
@@ -3803,7 +3803,7 @@
         <v>420</v>
       </c>
       <c r="B422" t="n">
-        <v>42752542716.25021</v>
+        <v>42752542822.95151</v>
       </c>
     </row>
     <row r="423">
@@ -3811,7 +3811,7 @@
         <v>421</v>
       </c>
       <c r="B423" t="n">
-        <v>42621689915.83861</v>
+        <v>42621689569.16803</v>
       </c>
     </row>
     <row r="424">
@@ -3819,7 +3819,7 @@
         <v>422</v>
       </c>
       <c r="B424" t="n">
-        <v>42512657007.00323</v>
+        <v>42512656787.84739</v>
       </c>
     </row>
     <row r="425">
@@ -3827,7 +3827,7 @@
         <v>423</v>
       </c>
       <c r="B425" t="n">
-        <v>42425543100.20642</v>
+        <v>42425542750.85772</v>
       </c>
     </row>
     <row r="426">
@@ -3835,7 +3835,7 @@
         <v>424</v>
       </c>
       <c r="B426" t="n">
-        <v>42359701133.39742</v>
+        <v>42359701136.59369</v>
       </c>
     </row>
     <row r="427">
@@ -3843,7 +3843,7 @@
         <v>425</v>
       </c>
       <c r="B427" t="n">
-        <v>42313984770.00617</v>
+        <v>42313983897.47448</v>
       </c>
     </row>
     <row r="428">
@@ -3851,7 +3851,7 @@
         <v>426</v>
       </c>
       <c r="B428" t="n">
-        <v>42286930730.26936</v>
+        <v>42286931030.7248</v>
       </c>
     </row>
     <row r="429">
@@ -3859,7 +3859,7 @@
         <v>427</v>
       </c>
       <c r="B429" t="n">
-        <v>42276901988.26087</v>
+        <v>42276901243.07359</v>
       </c>
     </row>
     <row r="430">
@@ -3867,7 +3867,7 @@
         <v>428</v>
       </c>
       <c r="B430" t="n">
-        <v>42164848662.97449</v>
+        <v>42164848054.05265</v>
       </c>
     </row>
     <row r="431">
@@ -3875,7 +3875,7 @@
         <v>429</v>
       </c>
       <c r="B431" t="n">
-        <v>42066962081.42067</v>
+        <v>42066961152.55528</v>
       </c>
     </row>
     <row r="432">
@@ -3883,7 +3883,7 @@
         <v>430</v>
       </c>
       <c r="B432" t="n">
-        <v>41981338024.66522</v>
+        <v>41981337376.79212</v>
       </c>
     </row>
     <row r="433">
@@ -3891,7 +3891,7 @@
         <v>431</v>
       </c>
       <c r="B433" t="n">
-        <v>41906182742.95988</v>
+        <v>41906182116.44609</v>
       </c>
     </row>
     <row r="434">
@@ -3899,7 +3899,7 @@
         <v>432</v>
       </c>
       <c r="B434" t="n">
-        <v>41839833311.3134</v>
+        <v>41839832647.85931</v>
       </c>
     </row>
     <row r="435">
@@ -3907,7 +3907,7 @@
         <v>433</v>
       </c>
       <c r="B435" t="n">
-        <v>41780762340.65444</v>
+        <v>41780762106.30386</v>
       </c>
     </row>
     <row r="436">
@@ -3915,7 +3915,7 @@
         <v>434</v>
       </c>
       <c r="B436" t="n">
-        <v>41727582899.51125</v>
+        <v>41727582551.42507</v>
       </c>
     </row>
     <row r="437">
@@ -3923,7 +3923,7 @@
         <v>435</v>
       </c>
       <c r="B437" t="n">
-        <v>41679032036.55802</v>
+        <v>41679030986.56483</v>
       </c>
     </row>
     <row r="438">
@@ -3931,7 +3931,7 @@
         <v>436</v>
       </c>
       <c r="B438" t="n">
-        <v>41633978731.84154</v>
+        <v>41633978180.70528</v>
       </c>
     </row>
     <row r="439">
@@ -3939,7 +3939,7 @@
         <v>437</v>
       </c>
       <c r="B439" t="n">
-        <v>41591405807.07518</v>
+        <v>41591404865.97961</v>
       </c>
     </row>
     <row r="440">
@@ -3947,7 +3947,7 @@
         <v>438</v>
       </c>
       <c r="B440" t="n">
-        <v>41550393596.45346</v>
+        <v>41550392286.28864</v>
       </c>
     </row>
     <row r="441">
@@ -3955,7 +3955,7 @@
         <v>439</v>
       </c>
       <c r="B441" t="n">
-        <v>41510122659.50333</v>
+        <v>41510121517.43476</v>
       </c>
     </row>
     <row r="442">
@@ -3963,7 +3963,7 @@
         <v>440</v>
       </c>
       <c r="B442" t="n">
-        <v>41469859731.85689</v>
+        <v>41469858418.39108</v>
       </c>
     </row>
     <row r="443">
@@ -3971,7 +3971,7 @@
         <v>441</v>
       </c>
       <c r="B443" t="n">
-        <v>41428946477.51499</v>
+        <v>41428945166.57002</v>
       </c>
     </row>
     <row r="444">
@@ -3979,7 +3979,7 @@
         <v>442</v>
       </c>
       <c r="B444" t="n">
-        <v>41386791284.45071</v>
+        <v>41386790679.25385</v>
       </c>
     </row>
     <row r="445">
@@ -3987,7 +3987,7 @@
         <v>443</v>
       </c>
       <c r="B445" t="n">
-        <v>41342874336.25703</v>
+        <v>41342874058.87359</v>
       </c>
     </row>
     <row r="446">
@@ -3995,7 +3995,7 @@
         <v>444</v>
       </c>
       <c r="B446" t="n">
-        <v>41296721484.26659</v>
+        <v>41296720206.93018</v>
       </c>
     </row>
     <row r="447">
@@ -4003,7 +4003,7 @@
         <v>445</v>
       </c>
       <c r="B447" t="n">
-        <v>41247908011.06227</v>
+        <v>41247907914.7066</v>
       </c>
     </row>
     <row r="448">
@@ -4011,7 +4011,7 @@
         <v>446</v>
       </c>
       <c r="B448" t="n">
-        <v>41196055357.5799</v>
+        <v>41196055085.00956</v>
       </c>
     </row>
     <row r="449">
@@ -4019,7 +4019,7 @@
         <v>447</v>
       </c>
       <c r="B449" t="n">
-        <v>41140827708.54008</v>
+        <v>41140826730.01131</v>
       </c>
     </row>
     <row r="450">
@@ -4027,7 +4027,7 @@
         <v>448</v>
       </c>
       <c r="B450" t="n">
-        <v>41081917750.65314</v>
+        <v>41081917523.3578</v>
       </c>
     </row>
     <row r="451">
@@ -4035,7 +4035,7 @@
         <v>449</v>
       </c>
       <c r="B451" t="n">
-        <v>41019051251.33987</v>
+        <v>41019051372.204</v>
       </c>
     </row>
     <row r="452">
